--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="一览表" sheetId="2" r:id="rId1"/>
     <sheet name="t_fid" sheetId="3" r:id="rId2"/>
-    <sheet name="t_log" sheetId="4" r:id="rId3"/>
-    <sheet name="t_main_menu" sheetId="5" r:id="rId4"/>
+    <sheet name="t_biz_log" sheetId="4" r:id="rId3"/>
+    <sheet name="t_menu_item" sheetId="5" r:id="rId4"/>
     <sheet name="t_org" sheetId="6" r:id="rId5"/>
     <sheet name="t_permission" sheetId="7" r:id="rId6"/>
     <sheet name="t_recent_fid" sheetId="8" r:id="rId7"/>
     <sheet name="t_role" sheetId="9" r:id="rId8"/>
     <sheet name="t_role_permission" sheetId="10" r:id="rId9"/>
     <sheet name="t_user" sheetId="11" r:id="rId10"/>
-    <sheet name="t_user_role" sheetId="12" r:id="rId11"/>
+    <sheet name="t_role_user" sheetId="12" r:id="rId11"/>
     <sheet name="t_customer_category" sheetId="13" r:id="rId12"/>
     <sheet name="t_customer" sheetId="14" r:id="rId13"/>
     <sheet name="t_goods_category" sheetId="15" r:id="rId14"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="266">
   <si>
     <t>KEY</t>
   </si>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>角色拥有的权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户拥有的角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,9 +166,6 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
   </si>
   <si>
     <t>varchar(50)</t>
@@ -238,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,60 +243,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(max)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认值：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>getdata()</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户的ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,14 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_caption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>show_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,30 +303,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>org_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>org_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>can_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组织机构名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,50 +327,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组织机构是否能删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当本字段值为十个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的时候，表示能删除</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>permission_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>permission_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,44 +343,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自增长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>role_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,10 +388,6 @@
   </si>
   <si>
     <t>用户的组织机构编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户是否可以被删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -609,14 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_main_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_org</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,10 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_user_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_customer_category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_customer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,42 +486,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>customer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>customer_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>customer_tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户QQ号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户分类Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,10 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unit_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计量单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,18 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goods_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_spec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品分类id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,35 +578,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>supplier_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>supplier_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier_tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier_qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商QQ号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1644,10 +1393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,10 +1409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1689,6 +1430,281 @@
   </si>
   <si>
     <t>t_supplier_code_help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_menu_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_menu_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称的拼音字头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色拥有的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人固话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人QQ号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人固话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人QQ号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称的拼音字头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_receivables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_receivables_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_payables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_payables_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deciaml(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应收账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应收账款截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应付账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应付账款截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称拼音字头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1895,7 +1911,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1932,9 +1948,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1942,9 +1955,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2004,9 +2014,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2023,6 +2030,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2078,6 +2094,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2377,33 +2402,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="32"/>
+    <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="83" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="32"/>
+    <col min="3" max="3" width="35.125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="83" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
       <c r="B1" s="43" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B2" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>95</v>
+      <c r="B2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1">
@@ -2411,10 +2438,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.95" customHeight="1">
@@ -2422,9 +2449,9 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2433,9 +2460,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2444,9 +2471,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2455,9 +2482,9 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2466,10 +2493,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>230</v>
+        <v>73</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.95" customHeight="1">
@@ -2477,9 +2504,9 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2488,9 +2515,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2499,10 +2526,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>231</v>
+        <v>76</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.95" customHeight="1">
@@ -2510,10 +2537,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>10</v>
+        <v>221</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.95" customHeight="1">
@@ -2521,10 +2548,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>107</v>
+        <v>77</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.95" customHeight="1">
@@ -2532,10 +2559,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>111</v>
+        <v>80</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="24.95" customHeight="1">
@@ -2543,10 +2570,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>123</v>
+        <v>85</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="24.95" customHeight="1">
@@ -2554,10 +2581,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>125</v>
+        <v>87</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24.95" customHeight="1">
@@ -2565,10 +2592,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>130</v>
+        <v>91</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24.95" customHeight="1">
@@ -2576,10 +2603,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>142</v>
+        <v>99</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="24.95" customHeight="1">
@@ -2587,21 +2614,21 @@
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="39" customFormat="1" ht="24.95" customHeight="1">
+        <v>102</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>244</v>
+        <v>196</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24.95" customHeight="1">
@@ -2609,10 +2636,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>156</v>
+        <v>108</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.95" customHeight="1">
@@ -2620,10 +2647,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>163</v>
+        <v>115</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.95" customHeight="1">
@@ -2631,10 +2658,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>233</v>
+        <v>143</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="24.95" customHeight="1">
@@ -2642,10 +2669,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>204</v>
+        <v>156</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="24.95" customHeight="1">
@@ -2653,10 +2680,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>206</v>
+        <v>158</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2666,15 +2693,15 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" location="t_fid!A1" display="t_fid"/>
-    <hyperlink ref="C4" location="t_log!A1" display="t_log"/>
-    <hyperlink ref="C5" location="t_main_menu!A1" display="t_main_menu"/>
+    <hyperlink ref="C4" location="t_biz_log!A1" display="t_biz_log"/>
+    <hyperlink ref="C5" location="t_menu_item!A1" display="t_menu_item"/>
     <hyperlink ref="C6" location="t_org!A1" display="t_org"/>
     <hyperlink ref="C7" location="t_permission!A1" display="t_permission"/>
     <hyperlink ref="C8" location="t_recent_fid!A1" display="t_recent_fid"/>
     <hyperlink ref="C9" location="t_role!A1" display="t_role"/>
     <hyperlink ref="C10" location="t_role_permission!A1" display="t_role_permission"/>
     <hyperlink ref="C11" location="t_user!A1" display="t_user"/>
-    <hyperlink ref="C12" location="t_user_role!A1" display="t_user_role"/>
+    <hyperlink ref="C12" location="t_role_user!A1" display="t_role_user"/>
     <hyperlink ref="C13" location="t_customer_category!A1" display="t_customer_category"/>
     <hyperlink ref="C14" location="t_customer!A1" display="t_customer"/>
     <hyperlink ref="C15" location="t_goods_category!A1" display="t_goods_category"/>
@@ -2698,9 +2725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:K2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -2720,11 +2745,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -2736,11 +2761,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -2752,16 +2777,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -2770,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -2780,17 +2805,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -2805,13 +2830,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -2826,14 +2851,14 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
+      <c r="C7" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -2849,13 +2874,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -2871,13 +2896,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -2893,20 +2918,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -2917,17 +2942,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -2938,18 +2963,18 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>61</v>
+      <c r="C12" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
@@ -2958,7 +2983,7 @@
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="C14" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -2971,12 +2996,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H6:K6"/>
@@ -2985,6 +3004,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2996,9 +3021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -3018,11 +3041,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -3034,11 +3057,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -3050,16 +3073,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -3068,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -3079,13 +3102,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -3101,17 +3124,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -3120,7 +3143,7 @@
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="C8" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -3150,7 +3173,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3172,11 +3195,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -3188,11 +3211,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -3204,16 +3227,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>0</v>
@@ -3222,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -3232,17 +3255,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>23</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -3252,51 +3275,72 @@
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+    <row r="6" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>23</v>
+      <c r="C6" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
     </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C9" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C8:K8"/>
+  <mergeCells count="9">
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C9:K9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3306,33 +3350,33 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="14" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="14" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="15"/>
+    <col min="8" max="8" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -3344,11 +3388,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -3359,26 +3403,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -3388,17 +3432,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>23</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -3408,23 +3452,21 @@
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+    <row r="6" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>23</v>
+      <c r="C6" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -3434,18 +3476,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>23</v>
+      <c r="C7" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -3456,40 +3498,40 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>23</v>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+    <row r="9" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>23</v>
+      <c r="C9" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -3500,51 +3542,304 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>23</v>
+      <c r="C10" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
     </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+    </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+    </row>
+    <row r="13" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+    </row>
+    <row r="14" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+    </row>
+    <row r="15" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+    </row>
+    <row r="16" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+    </row>
+    <row r="17" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+    </row>
+    <row r="18" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+    </row>
+    <row r="19" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
+      <c r="C19" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+    </row>
+    <row r="20" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+    </row>
+    <row r="21" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+    </row>
+    <row r="23" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C23" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="23">
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3560,27 +3855,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="18" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="20"/>
+    <col min="8" max="8" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -3592,11 +3887,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -3607,26 +3902,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -3636,17 +3931,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>23</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -3656,22 +3951,22 @@
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>23</v>
+      <c r="C6" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -3682,18 +3977,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>23</v>
+      <c r="C7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -3702,7 +3997,7 @@
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="C9" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -3739,27 +4034,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="18" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="20"/>
+    <col min="8" max="8" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -3771,11 +4066,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -3786,26 +4081,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -3815,17 +4110,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>23</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -3839,18 +4134,18 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>23</v>
+      <c r="C6" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -3859,7 +4154,7 @@
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="C8" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -3889,33 +4184,33 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="18" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="18" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="20"/>
+    <col min="8" max="8" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -3927,11 +4222,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -3942,26 +4237,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -3971,17 +4266,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>23</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -3995,18 +4290,18 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>23</v>
+      <c r="C6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -4017,18 +4312,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>23</v>
+      <c r="C7" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>212</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -4039,18 +4334,18 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>23</v>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>212</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -4061,18 +4356,18 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>23</v>
+      <c r="C9" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>212</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -4083,51 +4378,102 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>23</v>
+      <c r="C10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>212</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
     </row>
+    <row r="11" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+    </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+    </row>
+    <row r="13" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C14" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4143,27 +4489,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="24"/>
+    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4175,11 +4521,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -4190,26 +4536,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -4219,17 +4565,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>23</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -4239,22 +4585,22 @@
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
     </row>
-    <row r="6" spans="2:11" s="39" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="2:11" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>23</v>
+      <c r="C6" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -4265,18 +4611,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>23</v>
+      <c r="C7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -4285,7 +4631,7 @@
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="C9" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -4316,33 +4662,33 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="22" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="24"/>
+    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4354,11 +4700,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -4369,26 +4715,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -4398,17 +4744,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>23</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -4422,18 +4768,18 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>23</v>
+      <c r="C6" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -4444,62 +4790,62 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>23</v>
+      <c r="C7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>212</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+    <row r="8" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>23</v>
+      <c r="C8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>212</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+    <row r="9" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>23</v>
+      <c r="C9" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>212</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -4510,40 +4856,301 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>23</v>
+      <c r="C10" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>212</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
     </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+    </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+    </row>
+    <row r="13" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+    </row>
+    <row r="14" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+    </row>
+    <row r="15" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+    </row>
+    <row r="16" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+    </row>
+    <row r="17" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+    </row>
+    <row r="18" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+    </row>
+    <row r="19" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
+      <c r="C19" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+    </row>
+    <row r="20" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+    </row>
+    <row r="21" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+    </row>
+    <row r="22" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="24" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C24" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C12:K12"/>
+  <mergeCells count="23">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="C24:K24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
@@ -4552,9 +5159,13 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4570,27 +5181,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="36" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="39"/>
+    <col min="8" max="8" width="11" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4602,11 +5213,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -4617,26 +5228,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -4646,14 +5257,14 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>23</v>
+      <c r="C5" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -4668,18 +5279,18 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>23</v>
+      <c r="C6" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -4688,7 +5299,7 @@
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="C8" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -4740,11 +5351,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4756,11 +5367,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -4772,16 +5383,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -4790,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -4801,22 +5412,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
@@ -4827,17 +5438,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -4846,7 +5457,7 @@
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="C8" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -4882,27 +5493,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="24"/>
+    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -4914,11 +5525,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -4929,26 +5540,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -4958,17 +5569,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>23</v>
+      <c r="C5" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -4982,18 +5593,18 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>23</v>
+      <c r="C6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -5004,18 +5615,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>23</v>
+      <c r="C7" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -5024,7 +5635,7 @@
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="C9" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -5061,27 +5672,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="26" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="26" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="28"/>
+    <col min="8" max="8" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -5093,11 +5704,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -5108,26 +5719,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -5137,17 +5748,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>23</v>
+      <c r="C5" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -5161,18 +5772,18 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>23</v>
+      <c r="C6" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -5183,18 +5794,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>23</v>
+      <c r="C7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -5205,18 +5816,18 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>51</v>
+      <c r="C8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -5227,18 +5838,18 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>168</v>
+      <c r="C9" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -5249,18 +5860,18 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>168</v>
+      <c r="C10" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -5271,18 +5882,18 @@
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>51</v>
+      <c r="C11" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -5293,18 +5904,18 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>168</v>
+      <c r="C12" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
@@ -5315,18 +5926,18 @@
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>168</v>
+      <c r="C13" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
@@ -5337,18 +5948,18 @@
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>51</v>
+      <c r="C14" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -5359,18 +5970,18 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>168</v>
+      <c r="C15" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
@@ -5381,18 +5992,18 @@
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>168</v>
+      <c r="C16" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
@@ -5403,18 +6014,18 @@
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>38</v>
+      <c r="C17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
@@ -5423,7 +6034,7 @@
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
       <c r="C19" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -5436,6 +6047,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
@@ -5444,17 +6066,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5470,27 +6081,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="26" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="26" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="28"/>
+    <col min="8" max="8" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -5502,11 +6113,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -5517,26 +6128,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -5546,17 +6157,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>23</v>
+      <c r="C5" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -5570,18 +6181,18 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>23</v>
+      <c r="C6" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -5592,18 +6203,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>23</v>
+      <c r="C7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -5614,18 +6225,18 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>51</v>
+      <c r="C8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -5636,18 +6247,18 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>168</v>
+      <c r="C9" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -5658,18 +6269,18 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>168</v>
+      <c r="C10" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -5680,18 +6291,18 @@
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>51</v>
+      <c r="C11" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -5702,18 +6313,18 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>168</v>
+      <c r="C12" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
@@ -5724,18 +6335,18 @@
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>168</v>
+      <c r="C13" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
@@ -5746,18 +6357,18 @@
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>51</v>
+      <c r="C14" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -5768,18 +6379,18 @@
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>168</v>
+      <c r="C15" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
@@ -5790,18 +6401,18 @@
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>168</v>
+      <c r="C16" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
@@ -5812,18 +6423,18 @@
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>38</v>
+      <c r="C17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
@@ -5834,21 +6445,21 @@
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>51</v>
+      <c r="C18" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
@@ -5858,21 +6469,21 @@
       <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>23</v>
+      <c r="C19" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="I19" s="59"/>
       <c r="J19" s="59"/>
@@ -5882,18 +6493,18 @@
       <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>23</v>
+      <c r="C20" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
@@ -5904,18 +6515,18 @@
       <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>23</v>
+      <c r="C21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
@@ -5926,18 +6537,18 @@
       <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>171</v>
+      <c r="C22" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
@@ -5946,7 +6557,7 @@
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
       <c r="C24" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
@@ -5959,12 +6570,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
@@ -5977,12 +6588,12 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5998,27 +6609,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="30" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="30" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="32"/>
+    <col min="8" max="8" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -6030,11 +6641,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -6045,26 +6656,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -6074,17 +6685,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>23</v>
+      <c r="C5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -6098,18 +6709,18 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>23</v>
+      <c r="C6" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -6120,18 +6731,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>23</v>
+      <c r="C7" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -6142,18 +6753,18 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>23</v>
+      <c r="C8" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -6164,18 +6775,18 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>23</v>
+      <c r="C9" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -6186,18 +6797,18 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>23</v>
+      <c r="C10" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -6208,18 +6819,18 @@
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>38</v>
+      <c r="C11" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -6230,21 +6841,21 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>51</v>
+      <c r="C12" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="56" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
@@ -6252,7 +6863,7 @@
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="C14" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -6265,12 +6876,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H6:K6"/>
@@ -6279,6 +6884,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6294,27 +6905,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="30" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="30" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="32"/>
+    <col min="8" max="8" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -6326,11 +6937,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -6341,26 +6952,26 @@
       <c r="K3" s="49"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -6370,17 +6981,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>23</v>
+      <c r="C5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -6394,21 +7005,21 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>23</v>
+      <c r="C6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -6418,18 +7029,18 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>51</v>
+      <c r="C7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -6440,18 +7051,18 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>23</v>
+      <c r="C8" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -6462,18 +7073,18 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>51</v>
+      <c r="C9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -6484,18 +7095,18 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>168</v>
+      <c r="C10" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -6506,18 +7117,18 @@
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>168</v>
+      <c r="C11" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -6528,18 +7139,18 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>38</v>
+      <c r="C12" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
@@ -6548,7 +7159,7 @@
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="C14" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -6561,12 +7172,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H6:K6"/>
@@ -6575,6 +7180,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6584,7 +7195,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K13"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6594,7 +7205,7 @@
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -6606,11 +7217,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -6622,7 +7233,7 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
@@ -6638,16 +7249,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -6656,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -6666,22 +7277,24 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
+      <c r="C5" s="41" t="s">
+        <v>199</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
+      <c r="H5" s="57" t="s">
+        <v>200</v>
+      </c>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
@@ -6691,13 +7304,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -6712,14 +7325,14 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
+      <c r="C7" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -6734,14 +7347,14 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>32</v>
+      <c r="C8" s="41" t="s">
+        <v>202</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>204</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -6756,98 +7369,73 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
+      <c r="C9" s="41" t="s">
+        <v>203</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+    <row r="10" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
+      <c r="C10" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C13" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C12" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C13:K13"/>
+  <mergeCells count="12">
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C12:K12"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6879,11 +7467,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -6895,7 +7483,7 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
@@ -6911,16 +7499,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -6929,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -6939,17 +7527,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>47</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -6963,14 +7551,14 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>48</v>
+      <c r="C6" s="41" t="s">
+        <v>209</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -6986,13 +7574,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -7008,13 +7596,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -7030,13 +7618,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -7049,7 +7637,7 @@
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="C11" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -7062,17 +7650,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7082,7 +7670,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7104,11 +7692,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -7120,7 +7708,7 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
@@ -7136,16 +7724,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -7154,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -7164,17 +7752,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>56</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -7188,14 +7776,14 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>57</v>
+      <c r="C6" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -7210,21 +7798,21 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>58</v>
+      <c r="C7" s="41" t="s">
+        <v>211</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
@@ -7235,13 +7823,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -7257,13 +7845,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -7274,57 +7862,32 @@
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C11" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7356,11 +7919,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -7372,7 +7935,7 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
@@ -7388,16 +7951,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -7406,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -7416,17 +7979,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>70</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -7440,14 +8003,14 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>71</v>
+      <c r="C6" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -7463,13 +8026,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -7485,13 +8048,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>62</v>
+      <c r="E8" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -7504,7 +8067,7 @@
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="C10" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -7536,7 +8099,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7558,11 +8121,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -7574,11 +8137,11 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
@@ -7590,16 +8153,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -7608,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -7619,23 +8182,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56" t="s">
-        <v>77</v>
-      </c>
+      <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
@@ -7645,19 +8204,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
@@ -7666,71 +8225,48 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
+      <c r="C7" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C9" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="H5:K5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C9:K9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7742,9 +8278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -7764,11 +8298,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -7780,7 +8314,7 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
@@ -7796,16 +8330,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -7814,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -7824,17 +8358,17 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>78</v>
+      <c r="C5" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
@@ -7848,18 +8382,18 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>79</v>
+      <c r="C6" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -7868,7 +8402,7 @@
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="C8" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -7920,11 +8454,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
       <c r="B2" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="51" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
@@ -7936,7 +8470,7 @@
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
       <c r="B3" s="45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
@@ -7952,16 +8486,16 @@
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -7970,7 +8504,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -7981,13 +8515,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -8003,17 +8537,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>57</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -8022,7 +8556,7 @@
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="C8" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="一览表" sheetId="2" r:id="rId1"/>
@@ -25,19 +25,18 @@
     <sheet name="t_goods" sheetId="17" r:id="rId16"/>
     <sheet name="t_supplier_category" sheetId="18" r:id="rId17"/>
     <sheet name="t_supplier" sheetId="19" r:id="rId18"/>
-    <sheet name="t_supplier_code_help" sheetId="27" r:id="rId19"/>
-    <sheet name="t_warehouse" sheetId="20" r:id="rId20"/>
-    <sheet name="t_invertory" sheetId="22" r:id="rId21"/>
-    <sheet name="t_invertory_detail" sheetId="23" r:id="rId22"/>
-    <sheet name="t_pw_bill" sheetId="24" r:id="rId23"/>
-    <sheet name="t_pw_bill_detail" sheetId="25" r:id="rId24"/>
+    <sheet name="t_warehouse" sheetId="20" r:id="rId19"/>
+    <sheet name="t_invertory" sheetId="22" r:id="rId20"/>
+    <sheet name="t_invertory_detail" sheetId="23" r:id="rId21"/>
+    <sheet name="t_pw_bill" sheetId="24" r:id="rId22"/>
+    <sheet name="t_pw_bill_detail" sheetId="25" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="277">
   <si>
     <t>KEY</t>
   </si>
@@ -602,14 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>warehouse_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warehouse_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,10 +646,6 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一次修订时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1401,14 +1388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code_help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>助记码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1417,22 +1396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_supplier_code_help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称的助记码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称助记码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_supplier_code_help</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_biz_log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1705,6 +1668,117 @@
   </si>
   <si>
     <t>联系人手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称的拼音字头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库是否建账完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有建账完毕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：建账完毕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balnace_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品余额数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品余额金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品余额单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1911,7 +1985,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2017,13 +2091,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2039,6 +2107,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2095,14 +2181,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2400,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D25"/>
+  <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -2416,11 +2496,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="29" t="s">
@@ -2449,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>4</v>
@@ -2460,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>5</v>
@@ -2496,7 +2576,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.95" customHeight="1">
@@ -2529,7 +2609,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.95" customHeight="1">
@@ -2537,10 +2617,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.95" customHeight="1">
@@ -2617,73 +2697,62 @@
         <v>102</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="36" customFormat="1" ht="24.95" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="24.95" customHeight="1">
       <c r="B20" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>195</v>
+        <v>108</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24.95" customHeight="1">
       <c r="B21" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.95" customHeight="1">
       <c r="B22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.95" customHeight="1">
       <c r="B23" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>186</v>
+        <v>153</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="24.95" customHeight="1">
       <c r="B24" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B25" s="4">
-        <v>24</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2709,12 +2778,11 @@
     <hyperlink ref="C17" location="t_goods!A1" display="t_goods"/>
     <hyperlink ref="C18" location="t_supplier_category!A1" display="t_supplier_category"/>
     <hyperlink ref="C19" location="t_supplier!A1" display="t_supplier"/>
-    <hyperlink ref="C21" location="t_warehouse!A1" display="t_warehouse"/>
-    <hyperlink ref="C22" location="t_invertory!A1" display="t_invertory"/>
-    <hyperlink ref="C23" location="t_invertory_detail!A1" display="t_invertory_detail"/>
-    <hyperlink ref="C24" location="t_pw_bill!A1" display="t_pw_bill"/>
-    <hyperlink ref="C25" location="t_pw_bill_detail!A1" display="t_pw_bill_detail"/>
-    <hyperlink ref="C20" location="t_supplier_code_help!A1" display="t_supplier_code_help"/>
+    <hyperlink ref="C20" location="t_warehouse!A1" display="t_warehouse"/>
+    <hyperlink ref="C21" location="t_invertory!A1" display="t_invertory"/>
+    <hyperlink ref="C22" location="t_invertory_detail!A1" display="t_invertory_detail"/>
+    <hyperlink ref="C23" location="t_pw_bill!A1" display="t_pw_bill"/>
+    <hyperlink ref="C24" location="t_pw_bill_detail!A1" display="t_pw_bill_detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -2744,36 +2812,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -2794,25 +2862,25 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -2820,10 +2888,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -2835,39 +2903,39 @@
       <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
+      <c r="E7" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -2879,17 +2947,17 @@
       <c r="D8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>213</v>
+      <c r="E8" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -2901,17 +2969,17 @@
       <c r="D9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>213</v>
+      <c r="E9" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -2930,12 +2998,12 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -2947,55 +3015,61 @@
       <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>213</v>
+      <c r="E11" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>213</v>
+      <c r="C12" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H6:K6"/>
@@ -3004,12 +3078,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3040,36 +3108,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -3090,12 +3158,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3107,17 +3175,17 @@
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -3129,30 +3197,30 @@
       <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3194,36 +3262,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
@@ -3244,25 +3312,25 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -3270,65 +3338,65 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+    </row>
+    <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>213</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
+      <c r="E7" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3352,7 +3420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -3371,36 +3439,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -3421,25 +3489,25 @@
       <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -3447,388 +3515,376 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+    </row>
+    <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>224</v>
+      <c r="C7" s="39" t="s">
+        <v>215</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
+      <c r="E7" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>213</v>
+      <c r="E8" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+    </row>
+    <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>213</v>
+      <c r="C9" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+        <v>224</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>213</v>
+      <c r="C10" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+        <v>224</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>213</v>
+      <c r="C11" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+        <v>224</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>213</v>
+      <c r="C12" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="13" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+    </row>
+    <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>213</v>
+      <c r="C13" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-    </row>
-    <row r="14" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+    </row>
+    <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>213</v>
+      <c r="C14" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-    </row>
-    <row r="15" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+    </row>
+    <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>213</v>
+      <c r="C15" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-    </row>
-    <row r="16" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+    </row>
+    <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>213</v>
+      <c r="C16" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-    </row>
-    <row r="17" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+    </row>
+    <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>213</v>
+      <c r="C17" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-    </row>
-    <row r="18" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+    </row>
+    <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>248</v>
+      <c r="C18" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>239</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-    </row>
-    <row r="19" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+    </row>
+    <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>249</v>
+      <c r="C19" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>240</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-    </row>
-    <row r="20" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+    </row>
+    <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>248</v>
+      <c r="C20" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>239</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-    </row>
-    <row r="21" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+    </row>
+    <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>249</v>
+      <c r="C21" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>240</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+        <v>224</v>
+      </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H7:K7"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H10:K10"/>
@@ -3840,6 +3896,18 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3870,36 +3938,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -3920,25 +3988,25 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -3946,67 +4014,67 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>224</v>
+      <c r="C6" s="39" t="s">
+        <v>215</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+        <v>184</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+        <v>185</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
+      <c r="E7" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4049,36 +4117,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4099,25 +4167,25 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4125,45 +4193,45 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4205,36 +4273,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4255,25 +4323,25 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4281,10 +4349,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4296,83 +4364,83 @@
       <c r="D6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>224</v>
+      <c r="C7" s="39" t="s">
+        <v>215</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>212</v>
+      <c r="E7" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>212</v>
+      <c r="E8" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>254</v>
+      <c r="C9" s="39" t="s">
+        <v>245</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>212</v>
+      <c r="E9" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4384,82 +4452,88 @@
       <c r="D10" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>212</v>
+      <c r="E10" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+    </row>
+    <row r="11" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>259</v>
+      <c r="C11" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>250</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+        <v>252</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>212</v>
+      <c r="C12" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="13" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>251</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+    </row>
+    <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H7:K7"/>
@@ -4468,12 +4542,6 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4504,36 +4572,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -4554,25 +4622,25 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4580,67 +4648,67 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="2:11" s="36" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+    </row>
+    <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="C6" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+        <v>187</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
+      <c r="E7" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4683,36 +4751,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -4733,25 +4801,25 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4759,397 +4827,390 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>224</v>
+      <c r="C6" s="39" t="s">
+        <v>215</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>212</v>
+      <c r="E7" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="8" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>212</v>
+      <c r="E8" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+    </row>
+    <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>212</v>
+      <c r="C9" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+        <v>251</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>212</v>
+      <c r="C10" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+        <v>251</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>212</v>
+      <c r="C11" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+        <v>251</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>212</v>
+      <c r="C12" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="13" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>251</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+    </row>
+    <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>212</v>
+      <c r="C13" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-    </row>
-    <row r="14" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>251</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+    </row>
+    <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>212</v>
+      <c r="C14" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-    </row>
-    <row r="15" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>251</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+    </row>
+    <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>212</v>
+      <c r="C15" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-    </row>
-    <row r="16" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>251</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+    </row>
+    <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>212</v>
+      <c r="C16" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-    </row>
-    <row r="17" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>251</v>
+      </c>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+    </row>
+    <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>213</v>
+      <c r="C17" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-    </row>
-    <row r="18" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+    </row>
+    <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>248</v>
+      <c r="C18" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>239</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-    </row>
-    <row r="19" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+    </row>
+    <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>249</v>
+      <c r="C19" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>240</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-    </row>
-    <row r="20" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+    </row>
+    <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>248</v>
+      <c r="C20" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>239</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-    </row>
-    <row r="21" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+        <v>224</v>
+      </c>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+    </row>
+    <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>249</v>
+      <c r="C21" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>240</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-    </row>
-    <row r="22" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+        <v>224</v>
+      </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+    </row>
+    <row r="22" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H18:K18"/>
     <mergeCell ref="C24:K24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -5166,6 +5227,13 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5175,155 +5243,226 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="36"/>
+    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="D5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="50" t="s">
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C11" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5350,36 +5489,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5400,12 +5539,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5417,8 +5556,8 @@
       <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -5426,12 +5565,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5443,30 +5582,30 @@
       <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5487,188 +5626,9 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -5687,36 +5647,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -5737,19 +5697,19 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>117</v>
+      <c r="C5" s="42" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>18</v>
@@ -5763,10 +5723,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5776,7 +5736,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>21</v>
@@ -5785,10 +5745,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5798,7 +5758,7 @@
         <v>93</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>21</v>
@@ -5807,152 +5767,152 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>127</v>
+      <c r="C8" s="42" t="s">
+        <v>271</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>128</v>
+      <c r="C9" s="42" t="s">
+        <v>272</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>121</v>
+        <v>134</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>250</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>129</v>
+      <c r="C10" s="42" t="s">
+        <v>273</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>121</v>
+        <v>136</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>250</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>130</v>
+      <c r="C11" s="42" t="s">
+        <v>274</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>131</v>
+      <c r="C12" s="42" t="s">
+        <v>275</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>121</v>
+        <v>137</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>250</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>132</v>
+      <c r="C13" s="42" t="s">
+        <v>276</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>121</v>
+        <v>138</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>250</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>133</v>
+      <c r="C14" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>268</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>38</v>
@@ -5961,111 +5921,88 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>121</v>
+      <c r="C15" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>250</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>121</v>
+      <c r="C16" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>250</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-    </row>
-    <row r="17" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-    </row>
-    <row r="19" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C19" s="50" t="s">
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+    </row>
+    <row r="18" spans="3:11" ht="24.95" customHeight="1">
+      <c r="C18" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6073,7 +6010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K24"/>
   <sheetViews>
@@ -6096,36 +6033,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -6146,19 +6083,19 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>18</v>
@@ -6172,10 +6109,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6185,7 +6122,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>21</v>
@@ -6194,10 +6131,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6207,7 +6144,7 @@
         <v>93</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>21</v>
@@ -6216,152 +6153,152 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>38</v>
@@ -6370,64 +6307,64 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>30</v>
@@ -6436,17 +6373,17 @@
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>26</v>
@@ -6458,22 +6395,22 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
+      <c r="H18" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
     </row>
     <row r="19" spans="2:11" ht="93.75" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>21</v>
@@ -6482,22 +6419,22 @@
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="60"/>
+      <c r="H19" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
     </row>
     <row r="20" spans="2:11" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E20" s="27" t="s">
         <v>21</v>
@@ -6506,10 +6443,10 @@
       <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
     </row>
     <row r="21" spans="2:11" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -6519,7 +6456,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>21</v>
@@ -6528,54 +6465,54 @@
       <c r="G21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
     </row>
     <row r="22" spans="2:11" ht="24.95" customHeight="1">
       <c r="B22" s="4">
         <v>18</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
@@ -6588,12 +6525,308 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+    </row>
+    <row r="14" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C14" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6624,36 +6857,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -6674,12 +6907,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6700,20 +6933,20 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>21</v>
@@ -6722,42 +6955,44 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>21</v>
@@ -6766,412 +7001,120 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-    </row>
-    <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H6:K6"/>
@@ -7180,12 +7123,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7216,36 +7153,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7266,24 +7203,24 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>199</v>
+      <c r="C5" s="39" t="s">
+        <v>190</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -7292,12 +7229,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7309,68 +7246,68 @@
       <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>201</v>
+      <c r="C7" s="39" t="s">
+        <v>192</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
+      <c r="E7" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>202</v>
+      <c r="C8" s="39" t="s">
+        <v>193</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>204</v>
+      <c r="E8" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>203</v>
+      <c r="C9" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>35</v>
@@ -7382,45 +7319,45 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10" spans="2:11" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+    </row>
+    <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>213</v>
+      <c r="C10" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+        <v>198</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7466,36 +7403,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7516,25 +7453,25 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7542,32 +7479,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>209</v>
+      <c r="C6" s="39" t="s">
+        <v>200</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7586,10 +7523,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7601,17 +7538,17 @@
       <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>213</v>
+      <c r="E8" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7623,44 +7560,44 @@
       <c r="D9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>213</v>
+      <c r="E9" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7691,36 +7628,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7741,25 +7678,25 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7767,56 +7704,56 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>211</v>
+      <c r="C7" s="39" t="s">
+        <v>202</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
+      <c r="E7" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7828,17 +7765,17 @@
       <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>214</v>
+      <c r="E8" s="39" t="s">
+        <v>205</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7850,44 +7787,44 @@
       <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>214</v>
+      <c r="E9" s="39" t="s">
+        <v>205</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7918,36 +7855,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7968,25 +7905,25 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7994,32 +7931,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8031,17 +7968,17 @@
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
+      <c r="E7" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8053,30 +7990,30 @@
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>213</v>
+      <c r="E8" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8120,36 +8057,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8170,12 +8107,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8194,10 +8131,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8216,45 +8153,45 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8297,36 +8234,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8347,25 +8284,25 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -8373,45 +8310,45 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8453,36 +8390,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8503,12 +8440,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8520,17 +8457,17 @@
       <c r="D5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>213</v>
+      <c r="E5" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8542,30 +8479,30 @@
       <c r="D6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="E6" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="一览表" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="281">
   <si>
     <t>KEY</t>
   </si>
@@ -617,10 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inv_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,38 +641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_count_in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_money_in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_price_in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_count_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_money_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_price_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品结余数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,14 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存明细账账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ref_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,10 +697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动自增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -761,6 +713,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>t_pw_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采购入库单</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -768,7 +734,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>'</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -778,7 +744,634 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>建账</t>
+      <t>主表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pw_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采购入库单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品明细</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pw_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库单-主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库仓库id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录单人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pw_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库单-商品明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_pw_bill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示次序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近访问的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供应商</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存明细账</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_biz_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_menu_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_menu_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称的拼音字头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色拥有的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人固话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人QQ号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人固话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人QQ号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称的拼音字头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_receivables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_receivables_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_payables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_payables_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deciaml(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应收账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应收账款截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应付账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应付账款截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称拼音字头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称的拼音字头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库是否建账完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有建账完毕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：建账完毕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balnace_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品余额数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品余额金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品余额单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存明细账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'库存建账</t>
     </r>
     <r>
       <rPr>
@@ -1100,131 +1693,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>操作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_pw_bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采购入库单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_pw_bill_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采购入库单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品明细</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_pw_bill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购入库单-主表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>biz_user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input_user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bill_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库仓库id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录单人id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据状态</t>
+    <t>业务人员Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1248,7 +1745,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> 1</t>
+      <t xml:space="preserve"> 1000</t>
     </r>
     <r>
       <rPr>
@@ -1263,15 +1760,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_pw_bill_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购入库单-商品明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表id</t>
+    <t>goods_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1283,7 +1784,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>引用</t>
+      <t>这个是</t>
     </r>
     <r>
       <rPr>
@@ -1292,7 +1793,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>t_pw_bill</t>
+      <t>t_pw_bill_detail</t>
     </r>
     <r>
       <rPr>
@@ -1302,7 +1803,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的</t>
+      <t>表</t>
     </r>
     <r>
       <rPr>
@@ -1311,7 +1812,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>id</t>
+      <t>goods_money</t>
     </r>
     <r>
       <rPr>
@@ -1321,464 +1822,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>字段</t>
+      <t>按单据的合计值</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示次序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近访问的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供应商</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库存明细账</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_biz_log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_biz_log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_created</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_menu_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_menu_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称的拼音字头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_role_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色拥有的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_role_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人固话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人QQ号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用联系人固话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用联系人QQ号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用联系人手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称的拼音字头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_receivables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_receivables_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_payables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_payables_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deciaml(19,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初应收账款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初应收账款截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初应付账款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初应付账款截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称拼音字头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(19,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inited</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库名称的拼音字头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库是否建账完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有建账完毕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：建账完毕</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balnace_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品余额数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品余额金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品余额单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_price</t>
+    <t>本单据采购总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwbill_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1985,7 +2038,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2127,6 +2180,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2172,6 +2234,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2182,7 +2247,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2482,9 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -2496,11 +2559,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="29" t="s">
@@ -2529,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>4</v>
@@ -2540,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>5</v>
@@ -2576,7 +2639,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.95" customHeight="1">
@@ -2609,7 +2672,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.95" customHeight="1">
@@ -2617,10 +2680,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.95" customHeight="1">
@@ -2680,7 +2743,7 @@
     </row>
     <row r="18" spans="2:4" ht="24.95" customHeight="1">
       <c r="B18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>99</v>
@@ -2691,18 +2754,18 @@
     </row>
     <row r="19" spans="2:4" ht="24.95" customHeight="1">
       <c r="B19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="24.95" customHeight="1">
       <c r="B20" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>108</v>
@@ -2713,7 +2776,7 @@
     </row>
     <row r="21" spans="2:4" ht="24.95" customHeight="1">
       <c r="B21" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>113</v>
@@ -2724,35 +2787,35 @@
     </row>
     <row r="22" spans="2:4" ht="24.95" customHeight="1">
       <c r="B22" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.95" customHeight="1">
       <c r="B23" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="24.95" customHeight="1">
       <c r="B24" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2812,36 +2875,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -2862,12 +2925,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -2880,7 +2943,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -2888,10 +2951,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -2904,16 +2967,16 @@
         <v>32</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -2926,16 +2989,16 @@
         <v>61</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -2948,16 +3011,16 @@
         <v>62</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -2970,16 +3033,16 @@
         <v>63</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -2998,12 +3061,12 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -3016,51 +3079,51 @@
         <v>65</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3108,36 +3171,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -3158,12 +3221,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3176,16 +3239,16 @@
         <v>56</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -3198,29 +3261,29 @@
         <v>31</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3262,36 +3325,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
@@ -3312,12 +3375,12 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3330,7 +3393,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -3338,30 +3401,30 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -3374,29 +3437,29 @@
         <v>78</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3439,36 +3502,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -3489,12 +3552,12 @@
       <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3507,7 +3570,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -3515,10 +3578,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -3531,36 +3594,36 @@
         <v>84</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -3573,315 +3636,315 @@
         <v>83</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3938,36 +4001,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -3988,12 +4051,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4006,7 +4069,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4014,32 +4077,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+        <v>169</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4052,29 +4115,29 @@
         <v>86</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4117,36 +4180,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4167,12 +4230,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4185,7 +4248,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4193,10 +4256,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4209,29 +4272,29 @@
         <v>90</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4273,36 +4336,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4323,12 +4386,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4341,7 +4404,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4349,10 +4412,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4365,38 +4428,38 @@
         <v>94</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4409,38 +4472,38 @@
         <v>96</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4453,60 +4516,60 @@
         <v>98</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+        <v>236</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="1"/>
@@ -4514,17 +4577,17 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4572,36 +4635,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -4622,12 +4685,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4640,7 +4703,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4648,32 +4711,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+        <v>171</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4686,29 +4749,29 @@
         <v>78</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4751,36 +4814,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -4801,12 +4864,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4819,7 +4882,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4827,32 +4890,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>105</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4865,16 +4928,16 @@
         <v>106</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4887,302 +4950,302 @@
         <v>107</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B22" s="44"/>
@@ -5197,17 +5260,17 @@
       <c r="K22" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5264,36 +5327,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -5314,12 +5377,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5340,17 +5403,17 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>111</v>
@@ -5362,10 +5425,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5384,67 +5447,67 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
+        <v>248</v>
+      </c>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H9" s="65"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5489,36 +5552,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5539,12 +5602,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5557,7 +5620,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -5565,12 +5628,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5583,29 +5646,29 @@
         <v>24</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5628,7 +5691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -5647,36 +5710,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -5697,12 +5760,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5723,10 +5786,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5736,7 +5799,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>21</v>
@@ -5745,10 +5808,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5758,7 +5821,7 @@
         <v>93</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>21</v>
@@ -5767,152 +5830,152 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>38</v>
@@ -5921,67 +5984,67 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6012,9 +6075,9 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -6033,36 +6096,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -6083,25 +6146,25 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>115</v>
+      <c r="C5" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>21</v>
+      <c r="E5" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -6109,10 +6172,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6122,19 +6187,19 @@
         <v>110</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>21</v>
+        <v>115</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6144,161 +6209,161 @@
         <v>93</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>21</v>
+        <v>116</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>188</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>124</v>
+      <c r="C8" s="48" t="s">
+        <v>255</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>119</v>
+      <c r="E9" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>126</v>
+      <c r="C10" s="48" t="s">
+        <v>257</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>127</v>
+      <c r="C11" s="48" t="s">
+        <v>258</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>119</v>
+      <c r="E12" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>119</v>
+      <c r="E13" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>118</v>
+      <c r="C14" s="48" t="s">
+        <v>249</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>38</v>
@@ -6307,224 +6372,199 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>120</v>
+      <c r="C15" s="48" t="s">
+        <v>250</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>121</v>
+      <c r="C16" s="48" t="s">
+        <v>263</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-    </row>
-    <row r="17" spans="2:11" ht="24.95" customHeight="1">
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="2:11" ht="93.75" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>30</v>
+        <v>135</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>188</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
+      <c r="H17" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>38</v>
+        <v>136</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>267</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-    </row>
-    <row r="19" spans="2:11" ht="93.75" customHeight="1">
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+    </row>
+    <row r="19" spans="2:11" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>21</v>
+        <v>138</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>271</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="62" t="s">
-        <v>151</v>
-      </c>
+      <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
-    </row>
-    <row r="20" spans="2:11" ht="24.95" customHeight="1">
+      <c r="K19" s="63"/>
+    </row>
+    <row r="20" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>21</v>
+      <c r="C20" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>267</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-    </row>
-    <row r="21" spans="2:11" ht="24.95" customHeight="1">
+        <v>268</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+    </row>
+    <row r="21" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>21</v>
+      <c r="C21" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>271</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-    </row>
-    <row r="22" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B22" s="4">
-        <v>18</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-    </row>
-    <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+    </row>
+    <row r="23" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C23" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C24:K24"/>
+  <mergeCells count="23">
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
     <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -6534,13 +6574,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6561,36 +6601,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -6611,12 +6651,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6637,20 +6677,20 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>21</v>
@@ -6659,10 +6699,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6672,7 +6712,7 @@
         <v>104</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>21</v>
@@ -6681,10 +6721,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6694,7 +6734,7 @@
         <v>110</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>21</v>
@@ -6703,20 +6743,20 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>21</v>
@@ -6725,108 +6765,156 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-    </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+    </row>
+    <row r="10" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>21</v>
+      <c r="C10" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+        <v>272</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>163</v>
+      <c r="C12" s="48" t="s">
+        <v>178</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-    </row>
-    <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="54" t="s">
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+    </row>
+    <row r="13" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+    </row>
+    <row r="14" spans="2:11" s="47" customFormat="1" ht="42" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="68"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C16" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="H13:K13"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6857,36 +6945,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -6907,12 +6995,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6933,20 +7021,20 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>37</v>
+      <c r="C6" s="48" t="s">
+        <v>280</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>21</v>
@@ -6955,12 +7043,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6970,7 +7058,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>38</v>
@@ -6979,10 +7067,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6992,7 +7080,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>21</v>
@@ -7001,20 +7089,20 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>38</v>
@@ -7023,64 +7111,64 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>162</v>
+      <c r="C12" s="48" t="s">
+        <v>178</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>30</v>
@@ -7089,23 +7177,23 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7153,36 +7241,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7203,19 +7291,19 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
@@ -7229,12 +7317,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7247,67 +7335,67 @@
         <v>31</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>35</v>
@@ -7319,45 +7407,45 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+        <v>182</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7403,36 +7491,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7453,12 +7541,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7471,7 +7559,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7479,32 +7567,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7523,10 +7611,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7539,16 +7627,16 @@
         <v>41</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7561,29 +7649,29 @@
         <v>42</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7628,36 +7716,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7678,12 +7766,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7696,7 +7784,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7704,10 +7792,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7720,40 +7808,40 @@
         <v>45</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7766,16 +7854,16 @@
         <v>48</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7788,29 +7876,29 @@
         <v>49</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7855,36 +7943,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7905,12 +7993,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7923,7 +8011,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7931,10 +8019,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7947,16 +8035,16 @@
         <v>52</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7969,16 +8057,16 @@
         <v>42</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7991,29 +8079,29 @@
         <v>3</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8057,36 +8145,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8107,12 +8195,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8131,10 +8219,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8153,20 +8241,20 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>38</v>
@@ -8175,23 +8263,23 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8234,36 +8322,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8284,12 +8372,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8302,7 +8390,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -8310,10 +8398,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8326,29 +8414,29 @@
         <v>55</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8390,36 +8478,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8440,12 +8528,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8458,16 +8546,16 @@
         <v>56</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8480,29 +8568,29 @@
         <v>57</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="一览表" sheetId="2" r:id="rId1"/>
-    <sheet name="t_fid" sheetId="3" r:id="rId2"/>
-    <sheet name="t_biz_log" sheetId="4" r:id="rId3"/>
+    <sheet name="t_biz_log" sheetId="4" r:id="rId2"/>
+    <sheet name="t_fid" sheetId="3" r:id="rId3"/>
     <sheet name="t_menu_item" sheetId="5" r:id="rId4"/>
     <sheet name="t_org" sheetId="6" r:id="rId5"/>
     <sheet name="t_permission" sheetId="7" r:id="rId6"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="300">
   <si>
     <t>KEY</t>
   </si>
@@ -422,10 +422,6 @@
       </rPr>
       <t>：不能登录</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一览表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1058,10 +1054,6 @@
   </si>
   <si>
     <t>角色拥有的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_role_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1834,12 +1826,127 @@
     <t>pwbill_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开源进销存</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库表结构一览表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payables_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_receivables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_receivables_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_receiving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_ws_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_ws_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sr_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sr_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款明细账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款付款记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款明细账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款收款记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货入库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货入库单商品明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库单商品明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1920,6 +2027,14 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2038,7 +2153,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2178,6 +2293,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2545,7 +2669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D24"/>
+  <dimension ref="B1:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2559,120 +2683,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>70</v>
+      <c r="C3" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="24.95" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="24.95" customHeight="1">
+        <v>79</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="24.95" customHeight="1">
+        <v>76</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="24.95" customHeight="1">
+      <c r="C6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="24.95" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="24.95" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="24.95" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="24.95" customHeight="1">
+        <v>112</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>165</v>
+        <v>130</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.95" customHeight="1">
@@ -2680,10 +2804,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>195</v>
+        <v>184</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.95" customHeight="1">
@@ -2691,43 +2815,43 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="24.95" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="24.95" customHeight="1">
+      <c r="C14" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="24.95" customHeight="1">
+      <c r="C15" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>88</v>
+      <c r="C16" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24.95" customHeight="1">
@@ -2735,65 +2859,65 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="24.95" customHeight="1">
+        <v>71</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="24.95" customHeight="1">
+        <v>138</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="24.95" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="24.95" customHeight="1">
+      <c r="C20" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="24.95" customHeight="1">
+      <c r="C21" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
       <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>167</v>
+      <c r="C22" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.95" customHeight="1">
@@ -2801,10 +2925,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="24.95" customHeight="1">
@@ -2812,10 +2936,120 @@
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>142</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B33" s="4">
+        <v>31</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2824,28 +3058,28 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="t_fid!A1" display="t_fid"/>
-    <hyperlink ref="C4" location="t_biz_log!A1" display="t_biz_log"/>
-    <hyperlink ref="C5" location="t_menu_item!A1" display="t_menu_item"/>
-    <hyperlink ref="C6" location="t_org!A1" display="t_org"/>
-    <hyperlink ref="C7" location="t_permission!A1" display="t_permission"/>
-    <hyperlink ref="C8" location="t_recent_fid!A1" display="t_recent_fid"/>
-    <hyperlink ref="C9" location="t_role!A1" display="t_role"/>
-    <hyperlink ref="C10" location="t_role_permission!A1" display="t_role_permission"/>
-    <hyperlink ref="C11" location="t_user!A1" display="t_user"/>
-    <hyperlink ref="C12" location="t_role_user!A1" display="t_role_user"/>
-    <hyperlink ref="C13" location="t_customer_category!A1" display="t_customer_category"/>
-    <hyperlink ref="C14" location="t_customer!A1" display="t_customer"/>
-    <hyperlink ref="C15" location="t_goods_category!A1" display="t_goods_category"/>
-    <hyperlink ref="C16" location="t_goods_unit!A1" display="t_goods_unit"/>
-    <hyperlink ref="C17" location="t_goods!A1" display="t_goods"/>
-    <hyperlink ref="C18" location="t_supplier_category!A1" display="t_supplier_category"/>
-    <hyperlink ref="C19" location="t_supplier!A1" display="t_supplier"/>
-    <hyperlink ref="C20" location="t_warehouse!A1" display="t_warehouse"/>
-    <hyperlink ref="C21" location="t_invertory!A1" display="t_invertory"/>
-    <hyperlink ref="C22" location="t_invertory_detail!A1" display="t_invertory_detail"/>
-    <hyperlink ref="C23" location="t_pw_bill!A1" display="t_pw_bill"/>
-    <hyperlink ref="C24" location="t_pw_bill_detail!A1" display="t_pw_bill_detail"/>
+    <hyperlink ref="C3" location="t_biz_log!A1" display="t_biz_log"/>
+    <hyperlink ref="C12" location="t_menu_item!A1" display="t_menu_item"/>
+    <hyperlink ref="C13" location="t_org!A1" display="t_org"/>
+    <hyperlink ref="C17" location="t_permission!A1" display="t_permission"/>
+    <hyperlink ref="C23" location="t_recent_fid!A1" display="t_recent_fid"/>
+    <hyperlink ref="C24" location="t_role!A1" display="t_role"/>
+    <hyperlink ref="C25" location="t_role_permission!A1" display="t_role_permission"/>
+    <hyperlink ref="C30" location="t_supplier_category!A1" display="t_supplier_category"/>
+    <hyperlink ref="C32" location="t_warehouse!A1" display="t_warehouse"/>
+    <hyperlink ref="C6" location="t_fid!A1" display="t_fid"/>
+    <hyperlink ref="C4" location="t_customer!A1" display="t_customer"/>
+    <hyperlink ref="C5" location="t_customer_category!A1" display="t_customer_category"/>
+    <hyperlink ref="C7" location="t_goods!A1" display="t_goods"/>
+    <hyperlink ref="C8" location="t_goods_category!A1" display="t_goods_category"/>
+    <hyperlink ref="C9" location="t_goods_unit!A1" display="t_goods_unit"/>
+    <hyperlink ref="C10" location="t_invertory!A1" display="t_invertory"/>
+    <hyperlink ref="C11" location="t_invertory_detail!A1" display="t_invertory_detail"/>
+    <hyperlink ref="C18" location="t_pw_bill!A1" display="t_pw_bill"/>
+    <hyperlink ref="C19" location="t_pw_bill_detail!A1" display="t_pw_bill_detail"/>
+    <hyperlink ref="C26" location="t_role_user!A1" display="t_role_user"/>
+    <hyperlink ref="C29" location="t_supplier!A1" display="t_supplier"/>
+    <hyperlink ref="C31" location="t_user!A1" display="t_user"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -2875,36 +3109,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -2925,12 +3159,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -2943,7 +3177,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -2951,10 +3185,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -2967,16 +3201,16 @@
         <v>32</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -2989,16 +3223,16 @@
         <v>61</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -3011,16 +3245,16 @@
         <v>62</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -3033,16 +3267,16 @@
         <v>63</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -3061,12 +3295,12 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -3079,60 +3313,54 @@
         <v>65</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>193</v>
-      </c>
       <c r="E12" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H6:K6"/>
@@ -3141,6 +3369,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3171,36 +3405,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -3221,12 +3455,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3239,16 +3473,16 @@
         <v>56</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -3261,29 +3495,29 @@
         <v>31</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3325,36 +3559,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
@@ -3375,12 +3609,12 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3393,7 +3627,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -3401,30 +3635,30 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -3434,32 +3668,32 @@
         <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3502,36 +3736,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -3552,12 +3786,12 @@
       <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3570,7 +3804,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -3578,52 +3812,52 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -3633,321 +3867,333 @@
         <v>19</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>204</v>
-      </c>
       <c r="E9" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>205</v>
-      </c>
       <c r="E12" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>221</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>223</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>222</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>224</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H10:K10"/>
@@ -3959,18 +4205,6 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4001,36 +4235,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4051,12 +4285,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4069,7 +4303,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4077,32 +4311,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+        <v>168</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4112,32 +4346,32 @@
         <v>19</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4180,36 +4414,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4230,12 +4464,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4248,7 +4482,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4256,10 +4490,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4269,32 +4503,32 @@
         <v>19</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4336,36 +4570,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4386,12 +4620,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4404,7 +4638,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4412,54 +4646,54 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4469,107 +4703,107 @@
         <v>19</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>232</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>234</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+        <v>234</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>233</v>
-      </c>
       <c r="E12" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+        <v>233</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="1"/>
@@ -4577,26 +4811,20 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H7:K7"/>
@@ -4605,6 +4833,12 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4635,36 +4869,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -4685,12 +4919,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4703,7 +4937,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4711,32 +4945,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+        <v>170</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4746,32 +4980,32 @@
         <v>19</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4814,36 +5048,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -4864,12 +5098,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4882,7 +5116,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4890,32 +5124,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4925,327 +5159,327 @@
         <v>19</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>239</v>
-      </c>
       <c r="E9" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+        <v>233</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+        <v>233</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+        <v>233</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>240</v>
-      </c>
       <c r="E12" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+        <v>233</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>239</v>
-      </c>
       <c r="E13" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+        <v>233</v>
+      </c>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+        <v>233</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
+        <v>233</v>
+      </c>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>240</v>
-      </c>
       <c r="E16" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+        <v>233</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>221</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>223</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>222</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>224</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
     </row>
     <row r="22" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B22" s="44"/>
@@ -5260,20 +5494,27 @@
       <c r="K22" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="C24:K24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -5290,13 +5531,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5327,36 +5561,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -5377,12 +5611,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5403,20 +5637,20 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>21</v>
@@ -5425,10 +5659,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5438,7 +5672,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>21</v>
@@ -5447,67 +5681,67 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+        <v>245</v>
+      </c>
+      <c r="H9" s="68"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5531,7 +5765,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5541,7 +5775,7 @@
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -5552,36 +5786,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5602,25 +5836,25 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
+      <c r="C5" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -5628,62 +5862,154 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="57" t="s">
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H7:K7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
-    <mergeCell ref="C8:K8"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5710,36 +6036,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -5760,12 +6086,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5786,20 +6112,20 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>21</v>
@@ -5808,20 +6134,20 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>21</v>
@@ -5830,152 +6156,152 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>38</v>
@@ -5984,70 +6310,81 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
@@ -6055,17 +6392,6 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6096,36 +6422,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -6146,12 +6472,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6172,198 +6498,198 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>38</v>
@@ -6372,182 +6698,198 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:11" ht="93.75" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
+      <c r="H17" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>265</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>267</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+        <v>266</v>
+      </c>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="48" t="s">
         <v>269</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>271</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
+        <v>270</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H17:K17"/>
@@ -6555,22 +6897,6 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6601,36 +6927,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -6651,12 +6977,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6677,20 +7003,20 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>21</v>
@@ -6699,20 +7025,20 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>21</v>
@@ -6721,20 +7047,20 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>21</v>
@@ -6743,20 +7069,20 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>21</v>
@@ -6765,42 +7091,42 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+        <v>270</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>21</v>
@@ -6809,20 +7135,20 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>30</v>
@@ -6831,20 +7157,20 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>38</v>
@@ -6853,58 +7179,52 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="H13" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11" s="47" customFormat="1" ht="42" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>278</v>
-      </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
+        <v>266</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H6:K6"/>
@@ -6915,6 +7235,12 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6945,36 +7271,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -6995,12 +7321,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7021,20 +7347,20 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>21</v>
@@ -7043,12 +7369,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7058,7 +7384,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>38</v>
@@ -7067,20 +7393,20 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>21</v>
@@ -7089,20 +7415,20 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>38</v>
@@ -7111,64 +7437,64 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>30</v>
@@ -7177,32 +7503,26 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H6:K6"/>
@@ -7211,6 +7531,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7220,7 +7546,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7230,7 +7556,7 @@
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -7241,36 +7567,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7291,25 +7617,25 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7317,154 +7643,62 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-    </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-    </row>
-    <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-    </row>
-    <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H8:K8"/>
+  <mergeCells count="8">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H7:K7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
+    <mergeCell ref="C8:K8"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7491,36 +7725,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7541,12 +7775,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7559,7 +7793,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7567,32 +7801,32 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7611,10 +7845,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7627,16 +7861,16 @@
         <v>41</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7649,43 +7883,43 @@
         <v>42</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7716,36 +7950,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7766,12 +8000,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7784,7 +8018,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7792,10 +8026,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7808,40 +8042,40 @@
         <v>45</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7854,16 +8088,16 @@
         <v>48</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7876,43 +8110,43 @@
         <v>49</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7943,36 +8177,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7993,12 +8227,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8011,7 +8245,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -8019,10 +8253,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8035,16 +8269,16 @@
         <v>52</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8057,16 +8291,16 @@
         <v>42</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8079,29 +8313,29 @@
         <v>3</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8145,36 +8379,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8195,12 +8429,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8219,10 +8453,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8241,20 +8475,20 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>190</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>191</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>38</v>
@@ -8263,23 +8497,23 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8322,36 +8556,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8372,12 +8606,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8390,7 +8624,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -8398,10 +8632,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8414,29 +8648,29 @@
         <v>55</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8478,36 +8712,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8528,12 +8762,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8546,16 +8780,16 @@
         <v>56</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8568,29 +8802,29 @@
         <v>57</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -12,31 +12,34 @@
     <sheet name="t_fid" sheetId="3" r:id="rId3"/>
     <sheet name="t_menu_item" sheetId="5" r:id="rId4"/>
     <sheet name="t_org" sheetId="6" r:id="rId5"/>
-    <sheet name="t_permission" sheetId="7" r:id="rId6"/>
-    <sheet name="t_recent_fid" sheetId="8" r:id="rId7"/>
-    <sheet name="t_role" sheetId="9" r:id="rId8"/>
-    <sheet name="t_role_permission" sheetId="10" r:id="rId9"/>
-    <sheet name="t_user" sheetId="11" r:id="rId10"/>
-    <sheet name="t_role_user" sheetId="12" r:id="rId11"/>
-    <sheet name="t_customer_category" sheetId="13" r:id="rId12"/>
-    <sheet name="t_customer" sheetId="14" r:id="rId13"/>
-    <sheet name="t_goods_category" sheetId="15" r:id="rId14"/>
-    <sheet name="t_goods_unit" sheetId="16" r:id="rId15"/>
-    <sheet name="t_goods" sheetId="17" r:id="rId16"/>
-    <sheet name="t_supplier_category" sheetId="18" r:id="rId17"/>
-    <sheet name="t_supplier" sheetId="19" r:id="rId18"/>
-    <sheet name="t_warehouse" sheetId="20" r:id="rId19"/>
-    <sheet name="t_invertory" sheetId="22" r:id="rId20"/>
-    <sheet name="t_invertory_detail" sheetId="23" r:id="rId21"/>
-    <sheet name="t_pw_bill" sheetId="24" r:id="rId22"/>
-    <sheet name="t_pw_bill_detail" sheetId="25" r:id="rId23"/>
+    <sheet name="t_payables" sheetId="26" r:id="rId6"/>
+    <sheet name="t_payables_detail" sheetId="27" r:id="rId7"/>
+    <sheet name="t_payment" sheetId="28" r:id="rId8"/>
+    <sheet name="t_permission" sheetId="7" r:id="rId9"/>
+    <sheet name="t_recent_fid" sheetId="8" r:id="rId10"/>
+    <sheet name="t_role" sheetId="9" r:id="rId11"/>
+    <sheet name="t_role_permission" sheetId="10" r:id="rId12"/>
+    <sheet name="t_user" sheetId="11" r:id="rId13"/>
+    <sheet name="t_role_user" sheetId="12" r:id="rId14"/>
+    <sheet name="t_customer_category" sheetId="13" r:id="rId15"/>
+    <sheet name="t_customer" sheetId="14" r:id="rId16"/>
+    <sheet name="t_goods_category" sheetId="15" r:id="rId17"/>
+    <sheet name="t_goods_unit" sheetId="16" r:id="rId18"/>
+    <sheet name="t_goods" sheetId="17" r:id="rId19"/>
+    <sheet name="t_supplier_category" sheetId="18" r:id="rId20"/>
+    <sheet name="t_supplier" sheetId="19" r:id="rId21"/>
+    <sheet name="t_warehouse" sheetId="20" r:id="rId22"/>
+    <sheet name="t_invertory" sheetId="22" r:id="rId23"/>
+    <sheet name="t_invertory_detail" sheetId="23" r:id="rId24"/>
+    <sheet name="t_pw_bill" sheetId="24" r:id="rId25"/>
+    <sheet name="t_pw_bill_detail" sheetId="25" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="327">
   <si>
     <t>KEY</t>
   </si>
@@ -1941,6 +1944,155 @@
     <t>销售出库单商品明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ca_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往来单位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往来单位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_suppiler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'customer'
+'supplier'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payables_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务单据id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入人Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款人Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务单据单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务单据的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2153,7 +2305,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2313,8 +2465,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2334,9 +2504,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2351,9 +2518,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2371,6 +2535,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2683,11 +2850,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="29" t="s">
@@ -2825,8 +2992,8 @@
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="51" t="s">
-        <v>280</v>
+      <c r="C14" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>290</v>
@@ -2836,8 +3003,8 @@
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>281</v>
+      <c r="C15" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>291</v>
@@ -2847,8 +3014,8 @@
       <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="51" t="s">
-        <v>289</v>
+      <c r="C16" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>292</v>
@@ -3080,6 +3247,9 @@
     <hyperlink ref="C26" location="t_role_user!A1" display="t_role_user"/>
     <hyperlink ref="C29" location="t_supplier!A1" display="t_supplier"/>
     <hyperlink ref="C31" location="t_user!A1" display="t_user"/>
+    <hyperlink ref="C14" location="t_payables!A1" display="t_payables"/>
+    <hyperlink ref="C15" location="t_payables_detail!A1" display="t_payables_detail"/>
+    <hyperlink ref="C16" location="t_payment!A1" display="t_payment"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -3088,7 +3258,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3109,36 +3279,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -3159,217 +3329,98 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>18</v>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>187</v>
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>190</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-    </row>
-    <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-    </row>
-    <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="H11:K11"/>
+  <mergeCells count="9">
+    <mergeCell ref="H5:K5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C9:K9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
@@ -3405,36 +3456,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -3455,44 +3506,46 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>54</v>
+      <c r="C5" s="39" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
+      <c r="C6" s="39" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>187</v>
@@ -3501,23 +3554,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3537,6 +3590,610 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C8" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="14" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C14" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C8" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K9"/>
   <sheetViews>
@@ -3559,36 +4216,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
@@ -3609,12 +4266,12 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3635,10 +4292,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -3655,10 +4312,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -3677,23 +4334,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3713,7 +4370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K23"/>
   <sheetViews>
@@ -3736,36 +4393,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -3786,12 +4443,12 @@
       <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3812,10 +4469,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -3832,10 +4489,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -3854,10 +4511,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -3876,10 +4533,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -3898,10 +4555,10 @@
       <c r="G9" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -3920,10 +4577,10 @@
       <c r="G10" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -3942,10 +4599,10 @@
       <c r="G11" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -3964,10 +4621,10 @@
       <c r="G12" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -3986,10 +4643,10 @@
       <c r="G13" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -4008,10 +4665,10 @@
       <c r="G14" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -4030,10 +4687,10 @@
       <c r="G15" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -4052,10 +4709,10 @@
       <c r="G16" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -4074,10 +4731,10 @@
       <c r="G17" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -4096,10 +4753,10 @@
       <c r="G18" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -4118,10 +4775,10 @@
       <c r="G19" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -4140,10 +4797,10 @@
       <c r="G20" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -4162,38 +4819,26 @@
       <c r="G21" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H10:K10"/>
@@ -4205,6 +4850,18 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4212,7 +4869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K9"/>
   <sheetViews>
@@ -4235,36 +4892,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4285,12 +4942,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4311,10 +4968,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4333,10 +4990,10 @@
       <c r="G6" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4355,23 +5012,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4391,7 +5048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K8"/>
   <sheetViews>
@@ -4414,36 +5071,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4464,12 +5121,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4490,10 +5147,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4512,23 +5169,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4547,7 +5204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K14"/>
   <sheetViews>
@@ -4570,36 +5227,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -4620,12 +5277,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4646,10 +5303,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4668,10 +5325,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4690,10 +5347,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4712,10 +5369,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4734,10 +5391,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4756,10 +5413,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -4778,10 +5435,10 @@
       <c r="G11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -4800,10 +5457,10 @@
       <c r="G12" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="1"/>
@@ -4811,20 +5468,26 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H7:K7"/>
@@ -4833,933 +5496,10 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-    </row>
-    <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-    </row>
-    <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-    </row>
-    <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-    </row>
-    <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-    </row>
-    <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-    </row>
-    <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B15" s="4">
-        <v>11</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-    </row>
-    <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B16" s="4">
-        <v>12</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-    </row>
-    <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-    </row>
-    <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B18" s="4">
-        <v>14</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-    </row>
-    <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B19" s="4">
-        <v>15</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-    </row>
-    <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B20" s="4">
-        <v>16</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-    </row>
-    <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B21" s="4">
-        <v>17</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-    </row>
-    <row r="22" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
-    </row>
-    <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5786,36 +5526,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5836,12 +5576,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5862,12 +5602,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5886,10 +5626,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5908,10 +5648,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -5930,10 +5670,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -5952,10 +5692,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -5974,23 +5714,23 @@
       <c r="G10" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6015,6 +5755,923 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+    </row>
+    <row r="24" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C24" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C11" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -6036,36 +6693,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -6086,12 +6743,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6112,10 +6769,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6134,10 +6791,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6156,10 +6813,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6178,10 +6835,10 @@
       <c r="G8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6200,10 +6857,10 @@
       <c r="G9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6222,10 +6879,10 @@
       <c r="G10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -6244,10 +6901,10 @@
       <c r="G11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -6266,10 +6923,10 @@
       <c r="G12" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -6288,10 +6945,10 @@
       <c r="G13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -6310,10 +6967,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -6332,10 +6989,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -6354,37 +7011,26 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
@@ -6392,6 +7038,17 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6399,7 +7056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K23"/>
   <sheetViews>
@@ -6422,36 +7079,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -6472,12 +7129,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6498,12 +7155,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6522,10 +7179,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6544,10 +7201,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6566,10 +7223,10 @@
       <c r="G8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6588,10 +7245,10 @@
       <c r="G9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6610,10 +7267,10 @@
       <c r="G10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -6632,10 +7289,10 @@
       <c r="G11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -6654,10 +7311,10 @@
       <c r="G12" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -6676,10 +7333,10 @@
       <c r="G13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -6698,10 +7355,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -6720,10 +7377,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -6742,10 +7399,10 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="2:11" ht="93.75" customHeight="1">
       <c r="B17" s="4">
@@ -6764,12 +7421,12 @@
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H17" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="75"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -6788,10 +7445,10 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -6810,10 +7467,10 @@
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -6832,10 +7489,10 @@
       <c r="G20" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -6854,42 +7511,26 @@
       <c r="G21" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H17:K17"/>
@@ -6897,6 +7538,22 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6904,7 +7561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K16"/>
   <sheetViews>
@@ -6927,36 +7584,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -6977,12 +7634,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7003,10 +7660,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7025,10 +7682,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7047,10 +7704,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7069,10 +7726,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7091,10 +7748,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7113,10 +7770,10 @@
       <c r="G10" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -7135,10 +7792,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -7157,10 +7814,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -7179,12 +7836,12 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="2:11" s="47" customFormat="1" ht="42" customHeight="1">
       <c r="B14" s="4">
@@ -7203,28 +7860,34 @@
       <c r="G14" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H6:K6"/>
@@ -7235,12 +7898,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7248,7 +7905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K14"/>
   <sheetViews>
@@ -7271,36 +7928,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -7321,12 +7978,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7347,10 +8004,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7369,12 +8026,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7393,10 +8050,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7415,10 +8072,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7437,10 +8094,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7459,10 +8116,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -7481,10 +8138,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -7503,26 +8160,32 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H6:K6"/>
@@ -7531,12 +8194,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7567,36 +8224,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7617,12 +8274,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7643,12 +8300,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7667,23 +8324,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7725,36 +8382,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -7775,12 +8432,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7801,10 +8458,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7823,10 +8480,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7845,10 +8502,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7867,10 +8524,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7889,37 +8546,37 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7950,36 +8607,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8000,12 +8657,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8026,10 +8683,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8048,10 +8705,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8070,12 +8727,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8094,10 +8751,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8116,37 +8773,37 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8155,6 +8812,919 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C12" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="15" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C15" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C16" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K10"/>
   <sheetViews>
@@ -8177,36 +9747,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -8227,12 +9797,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8253,10 +9823,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8275,10 +9845,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8297,10 +9867,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8319,23 +9889,23 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8354,491 +9924,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -38,13 +38,15 @@
     <sheet name="t_pw_bill_detail" sheetId="25" r:id="rId29"/>
     <sheet name="t_ws_bill" sheetId="32" r:id="rId30"/>
     <sheet name="t_ws_bill_detail" sheetId="33" r:id="rId31"/>
+    <sheet name="t_sr_bill" sheetId="34" r:id="rId32"/>
+    <sheet name="t_sr_bill_detail" sheetId="35" r:id="rId33"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="387">
   <si>
     <t>KEY</t>
   </si>
@@ -2402,6 +2404,266 @@
     <t>t_ws_bill_detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>销售退货入库单-主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejection_sale_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单据退款总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_sr_bill_detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>rejection_sale_money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按单据的合计值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单据退货商品的库存价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待出库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：已出库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因退货减少的毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ws_bill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货入库单-商品明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srbill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_sr_bill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wsbilldetail_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库单商品明细id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_ws_bill_detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejection_goods_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejection_goods_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sr_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2614,7 +2876,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2798,6 +3060,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2860,9 +3137,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3174,11 +3448,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="29" t="s">
@@ -3459,7 +3733,7 @@
       <c r="B27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="7" t="s">
         <v>286</v>
       </c>
       <c r="D27" s="52" t="s">
@@ -3470,8 +3744,8 @@
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>287</v>
+      <c r="C28" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="D28" s="52" t="s">
         <v>296</v>
@@ -3579,6 +3853,8 @@
     <hyperlink ref="C22" location="t_receiving!A1" display="t_receiving"/>
     <hyperlink ref="C33" location="t_ws_bill!A1" display="t_ws_bill"/>
     <hyperlink ref="C34" location="t_ws_bill_detail!A1" display="t_ws_bill_detail"/>
+    <hyperlink ref="C27" location="t_sr_bill!A1" display="t_sr_bill"/>
+    <hyperlink ref="C28" location="t_sr_bill_detail!A1" display="t_sr_bill_detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -3608,36 +3884,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -3658,12 +3934,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3684,10 +3960,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -3706,12 +3982,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -3730,12 +4006,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -3754,10 +4030,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -3776,10 +4052,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -3798,38 +4074,38 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3860,36 +4136,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -3910,12 +4186,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -3936,10 +4212,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -3958,12 +4234,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -3982,12 +4258,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4006,10 +4282,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4028,10 +4304,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4050,10 +4326,10 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -4072,10 +4348,10 @@
       <c r="G11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -4094,10 +4370,10 @@
       <c r="G12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -4116,31 +4392,26 @@
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
@@ -4151,6 +4422,11 @@
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4181,36 +4457,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4231,12 +4507,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4257,10 +4533,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4279,10 +4555,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4301,10 +4577,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4323,10 +4599,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4345,10 +4621,10 @@
       <c r="G9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4367,10 +4643,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -4389,10 +4665,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -4411,10 +4687,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -4433,10 +4709,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -4455,15 +4731,15 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="44"/>
       <c r="C15" s="45"/>
-      <c r="D15" s="82"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="45"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
@@ -4473,20 +4749,26 @@
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="C16:K16"/>
@@ -4497,12 +4779,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4533,36 +4809,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -4583,12 +4859,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4607,10 +4883,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4629,10 +4905,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4651,23 +4927,23 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4710,36 +4986,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -4760,12 +5036,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4786,10 +5062,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4808,23 +5084,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4866,36 +5142,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -4916,12 +5192,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4940,10 +5216,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4962,23 +5238,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5020,36 +5296,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5070,12 +5346,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5096,10 +5372,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5118,10 +5394,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5140,10 +5416,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -5162,10 +5438,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -5184,10 +5460,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -5206,12 +5482,12 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -5230,10 +5506,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -5252,26 +5528,32 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H6:K6"/>
@@ -5280,12 +5562,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5316,36 +5592,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5366,12 +5642,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5390,10 +5666,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5412,23 +5688,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5470,36 +5746,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
@@ -5520,12 +5796,12 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5546,10 +5822,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5566,10 +5842,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5588,23 +5864,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5647,36 +5923,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -5697,12 +5973,12 @@
       <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5723,10 +5999,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5743,10 +6019,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5765,10 +6041,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -5787,10 +6063,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -5809,10 +6085,10 @@
       <c r="G9" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -5831,10 +6107,10 @@
       <c r="G10" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -5853,10 +6129,10 @@
       <c r="G11" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -5875,10 +6151,10 @@
       <c r="G12" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -5897,10 +6173,10 @@
       <c r="G13" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -5919,10 +6195,10 @@
       <c r="G14" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -5941,10 +6217,10 @@
       <c r="G15" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -5963,10 +6239,10 @@
       <c r="G16" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -5985,10 +6261,10 @@
       <c r="G17" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -6007,10 +6283,10 @@
       <c r="G18" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -6029,10 +6305,10 @@
       <c r="G19" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -6051,10 +6327,10 @@
       <c r="G20" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -6073,38 +6349,26 @@
       <c r="G21" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H10:K10"/>
@@ -6116,6 +6380,18 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6146,36 +6422,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -6196,12 +6472,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6222,12 +6498,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6246,10 +6522,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6268,10 +6544,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6290,10 +6566,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6312,10 +6588,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6334,23 +6610,23 @@
       <c r="G10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6396,36 +6672,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -6446,12 +6722,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6472,10 +6748,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6494,10 +6770,10 @@
       <c r="G6" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6516,23 +6792,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6575,36 +6851,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -6625,12 +6901,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6651,10 +6927,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6673,23 +6949,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6731,36 +7007,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -6781,12 +7057,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6807,10 +7083,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6829,10 +7105,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6851,10 +7127,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6873,10 +7149,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6895,10 +7171,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6917,10 +7193,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -6939,10 +7215,10 @@
       <c r="G11" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -6961,10 +7237,10 @@
       <c r="G12" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="1"/>
@@ -6972,20 +7248,26 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H7:K7"/>
@@ -6994,12 +7276,6 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7030,36 +7306,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7080,12 +7356,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7106,10 +7382,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7128,10 +7404,10 @@
       <c r="G6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7150,23 +7426,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7209,36 +7485,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7259,12 +7535,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7285,10 +7561,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7307,10 +7583,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7329,10 +7605,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7351,10 +7627,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7373,10 +7649,10 @@
       <c r="G9" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7395,10 +7671,10 @@
       <c r="G10" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -7417,10 +7693,10 @@
       <c r="G11" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -7439,10 +7715,10 @@
       <c r="G12" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -7461,10 +7737,10 @@
       <c r="G13" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -7483,10 +7759,10 @@
       <c r="G14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -7505,10 +7781,10 @@
       <c r="G15" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -7527,10 +7803,10 @@
       <c r="G16" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -7549,10 +7825,10 @@
       <c r="G17" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -7571,10 +7847,10 @@
       <c r="G18" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -7593,10 +7869,10 @@
       <c r="G19" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -7615,10 +7891,10 @@
       <c r="G20" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -7637,10 +7913,10 @@
       <c r="G21" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B22" s="44"/>
@@ -7655,27 +7931,20 @@
       <c r="K22" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H18:K18"/>
     <mergeCell ref="C24:K24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -7692,6 +7961,13 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7722,36 +7998,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7772,12 +8048,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7798,10 +8074,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7820,10 +8096,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7842,10 +8118,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7864,12 +8140,12 @@
       <c r="G8" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7886,23 +8162,23 @@
       <c r="G9" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7947,36 +8223,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -7997,12 +8273,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8023,10 +8299,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8045,10 +8321,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8067,10 +8343,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8089,10 +8365,10 @@
       <c r="G8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8111,10 +8387,10 @@
       <c r="G9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -8133,10 +8409,10 @@
       <c r="G10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -8155,10 +8431,10 @@
       <c r="G11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -8177,10 +8453,10 @@
       <c r="G12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -8199,10 +8475,10 @@
       <c r="G13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -8221,10 +8497,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -8243,10 +8519,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -8265,37 +8541,26 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
@@ -8303,6 +8568,17 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8333,36 +8609,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -8383,12 +8659,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8409,12 +8685,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8433,10 +8709,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8455,10 +8731,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8477,10 +8753,10 @@
       <c r="G8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8499,10 +8775,10 @@
       <c r="G9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -8521,10 +8797,10 @@
       <c r="G10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -8543,10 +8819,10 @@
       <c r="G11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -8565,10 +8841,10 @@
       <c r="G12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -8587,10 +8863,10 @@
       <c r="G13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -8609,10 +8885,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -8631,10 +8907,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -8653,10 +8929,10 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11" ht="93.75" customHeight="1">
       <c r="B17" s="4">
@@ -8675,12 +8951,12 @@
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="78" t="s">
+      <c r="H17" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -8699,10 +8975,10 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -8721,10 +8997,10 @@
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -8743,10 +9019,10 @@
       <c r="G20" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -8765,42 +9041,26 @@
       <c r="G21" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H17:K17"/>
@@ -8808,6 +9068,22 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8838,36 +9114,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -8888,12 +9164,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8905,8 +9181,8 @@
       <c r="D5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>21</v>
+      <c r="E5" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -8914,10 +9190,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8929,17 +9205,17 @@
       <c r="D6" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>21</v>
+      <c r="E6" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8951,17 +9227,17 @@
       <c r="D7" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>21</v>
+      <c r="E7" s="61" t="s">
+        <v>185</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8973,17 +9249,17 @@
       <c r="D8" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>21</v>
+      <c r="E8" s="61" t="s">
+        <v>185</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8995,17 +9271,17 @@
       <c r="D9" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>21</v>
+      <c r="E9" s="61" t="s">
+        <v>185</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -9024,10 +9300,10 @@
       <c r="G10" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -9039,17 +9315,17 @@
       <c r="D11" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>21</v>
+      <c r="E11" s="61" t="s">
+        <v>185</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -9068,10 +9344,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -9090,12 +9366,12 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" s="47" customFormat="1" ht="42" customHeight="1">
       <c r="B14" s="4">
@@ -9114,28 +9390,34 @@
       <c r="G14" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="86" t="s">
         <v>275</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H6:K6"/>
@@ -9146,12 +9428,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9182,36 +9458,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -9232,12 +9508,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9249,8 +9525,8 @@
       <c r="D5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>21</v>
+      <c r="E5" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -9258,10 +9534,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9273,19 +9549,19 @@
       <c r="D6" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>21</v>
+      <c r="E6" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -9304,10 +9580,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9319,17 +9595,17 @@
       <c r="D8" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>21</v>
+      <c r="E8" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -9348,10 +9624,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -9370,10 +9646,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -9392,10 +9668,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -9414,26 +9690,32 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H6:K6"/>
@@ -9442,12 +9724,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9478,36 +9754,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -9528,12 +9804,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9554,12 +9830,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9578,23 +9854,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9636,36 +9912,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>343</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -9686,12 +9962,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9703,8 +9979,8 @@
       <c r="D5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>21</v>
+      <c r="E5" s="61" t="s">
+        <v>374</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -9712,10 +9988,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9727,17 +10003,17 @@
       <c r="D6" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>21</v>
+      <c r="E6" s="61" t="s">
+        <v>374</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -9749,17 +10025,17 @@
       <c r="D7" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="57" t="s">
-        <v>21</v>
+      <c r="E7" s="61" t="s">
+        <v>374</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9771,17 +10047,17 @@
       <c r="D8" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="57" t="s">
-        <v>21</v>
+      <c r="E8" s="61" t="s">
+        <v>374</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -9793,17 +10069,17 @@
       <c r="D9" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="57" t="s">
-        <v>21</v>
+      <c r="E9" s="61" t="s">
+        <v>374</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -9822,10 +10098,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -9837,17 +10113,17 @@
       <c r="D11" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>21</v>
+      <c r="E11" s="61" t="s">
+        <v>374</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -9866,10 +10142,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -9888,12 +10164,12 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="42" customHeight="1">
       <c r="B14" s="4">
@@ -9912,12 +10188,12 @@
       <c r="G14" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="86" t="s">
         <v>350</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -9936,10 +10212,10 @@
       <c r="G15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -9958,39 +10234,28 @@
       <c r="G16" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="82" t="s">
         <v>353</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -9998,6 +10263,17 @@
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10028,36 +10304,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -10078,12 +10354,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10095,8 +10371,8 @@
       <c r="D5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>21</v>
+      <c r="E5" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -10104,10 +10380,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10119,19 +10395,19 @@
       <c r="D6" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>21</v>
+      <c r="E6" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10150,10 +10426,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10165,17 +10441,17 @@
       <c r="D8" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="57" t="s">
-        <v>21</v>
+      <c r="E8" s="61" t="s">
+        <v>186</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10194,10 +10470,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -10216,10 +10492,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10238,10 +10514,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10260,10 +10536,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -10282,10 +10558,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -10304,30 +10580,877 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+    </row>
+    <row r="13" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+    </row>
+    <row r="14" spans="2:11" ht="42" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>368</v>
+      </c>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+    </row>
+    <row r="15" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="82"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
+    </row>
+    <row r="17" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+    </row>
+    <row r="19" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C19" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+    </row>
+    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+    </row>
+    <row r="13" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+    </row>
+    <row r="14" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+    </row>
+    <row r="15" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+    </row>
+    <row r="17" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+    </row>
+    <row r="18" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+    </row>
+    <row r="20" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C20" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H8:K8"/>
@@ -10370,36 +11493,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -10420,12 +11543,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10446,10 +11569,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10468,10 +11591,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10490,10 +11613,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10512,10 +11635,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10534,37 +11657,37 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10595,36 +11718,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -10645,12 +11768,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10671,10 +11794,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10693,10 +11816,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10715,12 +11838,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10739,10 +11862,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10761,37 +11884,37 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10822,36 +11945,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -10872,12 +11995,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10898,10 +12021,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10920,12 +12043,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="33.75" customHeight="1">
       <c r="B7" s="4">
@@ -10944,12 +12067,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10968,10 +12091,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10990,10 +12113,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -11012,38 +12135,38 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11074,36 +12197,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -11124,12 +12247,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11150,10 +12273,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11172,12 +12295,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="33.75" customHeight="1">
       <c r="B7" s="4">
@@ -11196,12 +12319,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -11220,10 +12343,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -11242,10 +12365,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -11264,10 +12387,10 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -11286,10 +12409,10 @@
       <c r="G11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -11308,10 +12431,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -11330,23 +12453,23 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -11395,36 +12518,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -11445,12 +12568,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11471,10 +12594,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11493,10 +12616,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -11515,10 +12638,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -11537,10 +12660,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -11559,10 +12682,10 @@
       <c r="G9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -11581,10 +12704,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -11603,10 +12726,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -11625,10 +12748,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -11647,10 +12770,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -11669,26 +12792,32 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H7:K7"/>
@@ -11699,12 +12828,6 @@
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11735,36 +12858,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -11785,12 +12908,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11811,10 +12934,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11833,10 +12956,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -11855,10 +12978,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -11877,23 +13000,23 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -33,8 +33,8 @@
     <sheet name="t_supplier_category" sheetId="18" r:id="rId24"/>
     <sheet name="t_supplier" sheetId="19" r:id="rId25"/>
     <sheet name="t_warehouse" sheetId="20" r:id="rId26"/>
-    <sheet name="t_invertory" sheetId="22" r:id="rId27"/>
-    <sheet name="t_invertory_detail" sheetId="23" r:id="rId28"/>
+    <sheet name="t_inventory" sheetId="22" r:id="rId27"/>
+    <sheet name="t_inventory_detail" sheetId="23" r:id="rId28"/>
     <sheet name="t_pw_bill" sheetId="24" r:id="rId29"/>
     <sheet name="t_pw_bill_detail" sheetId="25" r:id="rId30"/>
     <sheet name="t_ws_bill" sheetId="32" r:id="rId31"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="396">
   <si>
     <t>KEY</t>
   </si>
@@ -616,10 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_invertory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>库存总账</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -681,10 +677,6 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_invertory_detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2691,6 +2683,22 @@
   </si>
   <si>
     <t>t_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_inventory_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_inventory_detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3490,7 +3498,7 @@
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
       <c r="B1" s="70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
@@ -3511,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>4</v>
@@ -3522,10 +3530,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3599,10 +3607,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3610,10 +3618,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.95" customHeight="1">
@@ -3621,7 +3629,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>5</v>
@@ -3643,10 +3651,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3654,10 +3662,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3665,10 +3673,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24.95" customHeight="1">
@@ -3687,10 +3695,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3698,10 +3706,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3709,10 +3717,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3720,10 +3728,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3731,10 +3739,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="24.95" customHeight="1">
@@ -3745,7 +3753,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="24.95" customHeight="1">
@@ -3775,10 +3783,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3786,10 +3794,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3797,10 +3805,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3811,7 +3819,7 @@
         <v>101</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="24.95" customHeight="1">
@@ -3833,7 +3841,7 @@
         <v>75</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="24.95" customHeight="1">
@@ -3852,10 +3860,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="24.95" customHeight="1">
@@ -3863,10 +3871,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3890,8 +3898,8 @@
     <hyperlink ref="C8" location="t_goods!A1" display="t_goods"/>
     <hyperlink ref="C9" location="t_goods_category!A1" display="t_goods_category"/>
     <hyperlink ref="C10" location="t_goods_unit!A1" display="t_goods_unit"/>
-    <hyperlink ref="C11" location="t_invertory!A1" display="t_invertory"/>
-    <hyperlink ref="C12" location="t_invertory_detail!A1" display="t_invertory_detail"/>
+    <hyperlink ref="C11" location="t_inventory!A1" display="t_inventory"/>
+    <hyperlink ref="C12" location="t_inventory_detail!A1" display="t_inventory_detail"/>
     <hyperlink ref="C19" location="t_pw_bill!A1" display="t_pw_bill"/>
     <hyperlink ref="C20" location="t_pw_bill_detail!A1" display="t_pw_bill_detail"/>
     <hyperlink ref="C27" location="t_role_user!A1" display="t_role_user"/>
@@ -4005,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4029,7 +4037,7 @@
         <v>52</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -4051,7 +4059,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -4073,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -4144,7 +4152,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -4160,7 +4168,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -4207,7 +4215,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4225,20 +4233,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
@@ -4249,20 +4257,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="85" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I7" s="71"/>
       <c r="J7" s="71"/>
@@ -4273,13 +4281,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -4295,13 +4303,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -4317,13 +4325,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -4349,18 +4357,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4396,7 +4404,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -4412,7 +4420,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -4459,7 +4467,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4477,20 +4485,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
@@ -4501,20 +4509,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="85" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I7" s="71"/>
       <c r="J7" s="71"/>
@@ -4525,13 +4533,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -4547,13 +4555,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -4569,13 +4577,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -4591,17 +4599,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E11" s="57" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
@@ -4613,13 +4621,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -4635,13 +4643,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -4717,7 +4725,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -4733,7 +4741,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -4780,7 +4788,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4798,13 +4806,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -4820,13 +4828,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -4842,10 +4850,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E8" s="57" t="s">
         <v>30</v>
@@ -4864,17 +4872,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="57" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -4886,13 +4894,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -4908,13 +4916,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -4930,13 +4938,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -4952,13 +4960,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -4974,13 +4982,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
@@ -5018,6 +5026,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="C16:K16"/>
@@ -5028,12 +5042,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5170,10 +5178,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>38</v>
@@ -5309,7 +5317,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -5333,7 +5341,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -5465,7 +5473,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -5487,7 +5495,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -5619,7 +5627,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -5643,7 +5651,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -5665,7 +5673,7 @@
         <v>61</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -5687,7 +5695,7 @@
         <v>62</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -5709,7 +5717,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -5755,7 +5763,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -5771,13 +5779,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -5803,6 +5811,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H6:K6"/>
@@ -5811,12 +5825,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5852,7 +5860,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -5868,7 +5876,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -5915,7 +5923,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -5937,7 +5945,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -6069,7 +6077,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -6087,13 +6095,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -6113,7 +6121,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -6183,7 +6191,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -6240,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
@@ -6255,7 +6263,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
@@ -6272,7 +6280,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -6288,13 +6296,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -6310,13 +6318,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -6332,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>35</v>
@@ -6354,17 +6362,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -6496,7 +6504,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -6520,7 +6528,7 @@
         <v>83</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -6534,13 +6542,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -6562,7 +6570,7 @@
         <v>82</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -6578,17 +6586,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>201</v>
-      </c>
       <c r="E9" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -6600,17 +6608,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -6622,17 +6630,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
@@ -6644,17 +6652,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>202</v>
-      </c>
       <c r="E12" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
@@ -6666,17 +6674,17 @@
         <v>9</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
@@ -6688,17 +6696,17 @@
         <v>10</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
@@ -6710,17 +6718,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
@@ -6732,17 +6740,17 @@
         <v>12</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
@@ -6754,17 +6762,17 @@
         <v>13</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H17" s="71"/>
       <c r="I17" s="71"/>
@@ -6776,17 +6784,17 @@
         <v>14</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H18" s="71"/>
       <c r="I18" s="71"/>
@@ -6798,17 +6806,17 @@
         <v>15</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
@@ -6820,17 +6828,17 @@
         <v>16</v>
       </c>
       <c r="C20" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>218</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>220</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H20" s="71"/>
       <c r="I20" s="71"/>
@@ -6842,17 +6850,17 @@
         <v>17</v>
       </c>
       <c r="C21" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>219</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>221</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
@@ -6874,18 +6882,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H10:K10"/>
@@ -6897,6 +6893,18 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6995,7 +7003,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7013,17 +7021,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
@@ -7041,7 +7049,7 @@
         <v>85</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -7174,7 +7182,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7198,7 +7206,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -7330,7 +7338,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7354,7 +7362,7 @@
         <v>93</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -7370,13 +7378,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>94</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -7398,7 +7406,7 @@
         <v>95</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -7414,13 +7422,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -7442,7 +7450,7 @@
         <v>97</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -7458,17 +7466,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>229</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>231</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
@@ -7480,17 +7488,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>230</v>
-      </c>
       <c r="E12" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
@@ -7517,6 +7525,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H7:K7"/>
@@ -7525,12 +7539,6 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7629,7 +7637,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7647,17 +7655,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
@@ -7675,7 +7683,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -7808,7 +7816,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -7826,13 +7834,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -7854,7 +7862,7 @@
         <v>105</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -7876,7 +7884,7 @@
         <v>106</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -7892,17 +7900,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>236</v>
-      </c>
       <c r="E9" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -7914,17 +7922,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -7936,17 +7944,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
@@ -7958,17 +7966,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>237</v>
-      </c>
       <c r="E12" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
@@ -7980,17 +7988,17 @@
         <v>9</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>236</v>
-      </c>
       <c r="E13" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
@@ -8002,17 +8010,17 @@
         <v>10</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
@@ -8024,17 +8032,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
@@ -8046,17 +8054,17 @@
         <v>12</v>
       </c>
       <c r="C16" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>237</v>
-      </c>
       <c r="E16" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
@@ -8068,17 +8076,17 @@
         <v>13</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H17" s="71"/>
       <c r="I17" s="71"/>
@@ -8090,17 +8098,17 @@
         <v>14</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H18" s="71"/>
       <c r="I18" s="71"/>
@@ -8112,17 +8120,17 @@
         <v>15</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
@@ -8134,17 +8142,17 @@
         <v>16</v>
       </c>
       <c r="C20" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>218</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>220</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H20" s="71"/>
       <c r="I20" s="71"/>
@@ -8156,17 +8164,17 @@
         <v>17</v>
       </c>
       <c r="C21" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>219</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>221</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
@@ -8200,13 +8208,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H18:K18"/>
     <mergeCell ref="C24:K24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -8223,6 +8224,13 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8339,7 +8347,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>110</v>
@@ -8383,20 +8391,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="86" t="s">
         <v>243</v>
-      </c>
-      <c r="H8" s="86" t="s">
-        <v>245</v>
       </c>
       <c r="I8" s="77"/>
       <c r="J8" s="77"/>
@@ -8407,15 +8415,15 @@
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="77"/>
@@ -8483,7 +8491,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>112</v>
+        <v>392</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -8499,7 +8507,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -8567,7 +8575,7 @@
         <v>109</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>21</v>
@@ -8589,7 +8597,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>21</v>
@@ -8608,17 +8616,17 @@
         <v>4</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
@@ -8630,17 +8638,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -8652,17 +8660,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -8674,17 +8682,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
@@ -8696,17 +8704,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
@@ -8718,17 +8726,17 @@
         <v>9</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
@@ -8740,10 +8748,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>38</v>
@@ -8762,13 +8770,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
@@ -8784,13 +8792,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -8816,17 +8824,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
@@ -8834,6 +8831,17 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8845,7 +8853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -8869,7 +8877,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>129</v>
+        <v>393</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -8885,7 +8893,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -8941,7 +8949,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
@@ -8955,10 +8963,10 @@
         <v>109</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -8977,10 +8985,10 @@
         <v>92</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -8996,17 +9004,17 @@
         <v>4</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
@@ -9018,17 +9026,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -9040,17 +9048,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -9062,17 +9070,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
@@ -9084,17 +9092,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
@@ -9106,17 +9114,17 @@
         <v>9</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
@@ -9128,10 +9136,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>38</v>
@@ -9150,13 +9158,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
@@ -9172,13 +9180,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -9194,20 +9202,20 @@
         <v>13</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
@@ -9218,13 +9226,13 @@
         <v>14</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
@@ -9240,13 +9248,13 @@
         <v>15</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
@@ -9262,17 +9270,17 @@
         <v>16</v>
       </c>
       <c r="C20" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>262</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>264</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H20" s="71"/>
       <c r="I20" s="71"/>
@@ -9284,17 +9292,17 @@
         <v>17</v>
       </c>
       <c r="C21" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="48" t="s">
         <v>266</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>268</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
@@ -9316,22 +9324,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H17:K17"/>
@@ -9339,6 +9331,22 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9374,7 +9382,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -9390,7 +9398,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -9437,7 +9445,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -9455,13 +9463,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -9480,10 +9488,10 @@
         <v>103</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -9502,10 +9510,10 @@
         <v>109</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -9521,13 +9529,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -9543,17 +9551,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -9565,13 +9573,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -9587,10 +9595,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>30</v>
@@ -9609,10 +9617,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>38</v>
@@ -9622,7 +9630,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="71" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71"/>
@@ -9633,20 +9641,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I14" s="88"/>
       <c r="J14" s="88"/>
@@ -9667,6 +9675,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H6:K6"/>
@@ -9677,12 +9691,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9718,7 +9726,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -9734,7 +9742,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -9781,7 +9789,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -9802,10 +9810,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -9821,13 +9829,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -9849,7 +9857,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -9920,7 +9928,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -9936,7 +9944,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -9983,7 +9991,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -10001,20 +10009,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
@@ -10028,7 +10036,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>38</v>
@@ -10050,10 +10058,10 @@
         <v>92</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -10069,10 +10077,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>38</v>
@@ -10091,13 +10099,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -10113,13 +10121,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -10135,10 +10143,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>30</v>
@@ -10167,6 +10175,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H6:K6"/>
@@ -10175,12 +10189,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10216,7 +10224,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -10232,7 +10240,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -10279,7 +10287,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -10297,13 +10305,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -10319,13 +10327,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -10344,10 +10352,10 @@
         <v>109</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -10363,13 +10371,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -10385,10 +10393,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="57" t="s">
         <v>30</v>
@@ -10407,13 +10415,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -10429,10 +10437,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="57" t="s">
         <v>30</v>
@@ -10451,10 +10459,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" s="57" t="s">
         <v>38</v>
@@ -10464,7 +10472,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71"/>
@@ -10475,20 +10483,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I14" s="88"/>
       <c r="J14" s="88"/>
@@ -10499,17 +10507,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="86"/>
       <c r="I15" s="77"/>
@@ -10521,20 +10529,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="86" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
@@ -10555,12 +10563,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -10573,6 +10575,12 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10608,7 +10616,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -10624,7 +10632,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -10671,7 +10679,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -10689,20 +10697,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
@@ -10716,7 +10724,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="57" t="s">
         <v>38</v>
@@ -10738,10 +10746,10 @@
         <v>92</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -10757,10 +10765,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E9" s="57" t="s">
         <v>38</v>
@@ -10779,13 +10787,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -10801,13 +10809,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="57" t="s">
         <v>229</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>231</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -10823,10 +10831,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="57" t="s">
         <v>30</v>
@@ -10845,13 +10853,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -10867,13 +10875,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
@@ -10899,6 +10907,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
@@ -10909,12 +10923,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10950,7 +10958,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -10966,7 +10974,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -11013,7 +11021,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -11031,13 +11039,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -11053,13 +11061,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -11078,10 +11086,10 @@
         <v>109</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -11097,13 +11105,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -11119,10 +11127,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="61" t="s">
         <v>30</v>
@@ -11141,13 +11149,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -11163,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>30</v>
@@ -11185,10 +11193,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>38</v>
@@ -11198,7 +11206,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="71" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71"/>
@@ -11209,20 +11217,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I14" s="88"/>
       <c r="J14" s="88"/>
@@ -11233,17 +11241,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="86"/>
       <c r="I15" s="77"/>
@@ -11255,17 +11263,17 @@
         <v>12</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="86"/>
       <c r="I16" s="77"/>
@@ -11277,13 +11285,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -11307,12 +11315,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H6:K6"/>
@@ -11326,6 +11328,12 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11361,7 +11369,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -11377,7 +11385,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -11424,7 +11432,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -11442,20 +11450,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
@@ -11469,7 +11477,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>38</v>
@@ -11491,10 +11499,10 @@
         <v>92</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -11510,10 +11518,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>38</v>
@@ -11532,13 +11540,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -11554,13 +11562,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="61" t="s">
         <v>229</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>231</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -11576,10 +11584,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>30</v>
@@ -11598,13 +11606,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -11620,13 +11628,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
@@ -11642,20 +11650,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
@@ -11666,13 +11674,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -11688,13 +11696,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
@@ -11710,10 +11718,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E18" s="61" t="s">
         <v>38</v>
@@ -11742,6 +11750,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -11754,14 +11770,6 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11860,7 +11868,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -11886,7 +11894,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -11955,7 +11963,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -12018,7 +12026,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -12036,13 +12044,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -12086,7 +12094,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -12108,7 +12116,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -12134,17 +12142,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12243,7 +12251,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -12267,7 +12275,7 @@
         <v>45</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -12283,13 +12291,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -12313,7 +12321,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -12335,7 +12343,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -12361,17 +12369,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12407,7 +12415,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -12423,7 +12431,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -12470,7 +12478,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -12488,20 +12496,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
@@ -12512,20 +12520,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="85" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I7" s="71"/>
       <c r="J7" s="71"/>
@@ -12536,13 +12544,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -12558,13 +12566,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -12580,13 +12588,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -12612,18 +12620,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12659,7 +12667,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -12675,7 +12683,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -12722,7 +12730,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -12740,20 +12748,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
@@ -12764,20 +12772,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="85" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I7" s="71"/>
       <c r="J7" s="71"/>
@@ -12788,13 +12796,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -12810,13 +12818,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -12832,13 +12840,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -12854,17 +12862,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
@@ -12876,13 +12884,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -12898,13 +12906,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -12980,7 +12988,7 @@
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="79" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
@@ -12996,7 +13004,7 @@
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -13043,7 +13051,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -13061,13 +13069,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -13083,13 +13091,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -13105,10 +13113,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>30</v>
@@ -13127,17 +13135,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -13149,13 +13157,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -13171,13 +13179,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -13193,13 +13201,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -13215,13 +13223,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -13237,13 +13245,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
@@ -13269,6 +13277,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H7:K7"/>
@@ -13279,12 +13293,6 @@
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="398">
   <si>
     <t>KEY</t>
   </si>
@@ -2214,10 +2214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invertory_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>profit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2382,10 +2378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invertory_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品对应的库存单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2699,6 +2691,22 @@
   </si>
   <si>
     <t>t_inventory_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2913,7 +2921,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3122,6 +3130,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3497,11 +3511,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="29" t="s">
@@ -3530,10 +3544,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3607,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>112</v>
@@ -3618,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>163</v>
@@ -3805,7 +3819,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>294</v>
@@ -3860,7 +3874,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D34" s="52" t="s">
         <v>295</v>
@@ -3871,7 +3885,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D35" s="52" t="s">
         <v>296</v>
@@ -3945,36 +3959,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -3995,12 +4009,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4021,10 +4035,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4043,10 +4057,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4065,10 +4079,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4087,23 +4101,23 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4147,36 +4161,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4197,12 +4211,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4223,10 +4237,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4245,12 +4259,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4269,12 +4283,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4293,10 +4307,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4315,10 +4329,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4337,23 +4351,23 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4399,36 +4413,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4449,12 +4463,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4475,10 +4489,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4497,12 +4511,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4521,12 +4535,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4545,10 +4559,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4567,10 +4581,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4589,10 +4603,10 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -4611,10 +4625,10 @@
       <c r="G11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -4633,10 +4647,10 @@
       <c r="G12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -4655,23 +4669,23 @@
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4720,36 +4734,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4770,12 +4784,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4796,10 +4810,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4818,10 +4832,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4840,10 +4854,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4862,10 +4876,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4884,10 +4898,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4906,10 +4920,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -4928,10 +4942,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -4950,10 +4964,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -4972,10 +4986,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -4994,10 +5008,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="44"/>
@@ -5012,17 +5026,17 @@
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5072,36 +5086,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5122,12 +5136,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5146,10 +5160,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5168,10 +5182,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5190,23 +5204,23 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5249,36 +5263,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5299,12 +5313,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5325,10 +5339,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5347,23 +5361,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5405,36 +5419,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5455,12 +5469,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5479,10 +5493,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5501,23 +5515,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5559,36 +5573,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5609,12 +5623,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5635,10 +5649,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5657,10 +5671,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5679,10 +5693,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -5701,10 +5715,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -5723,10 +5737,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -5745,12 +5759,12 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -5769,10 +5783,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -5791,23 +5805,23 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5855,36 +5869,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5905,12 +5919,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5929,10 +5943,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5951,23 +5965,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6009,36 +6023,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
@@ -6059,12 +6073,12 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6085,10 +6099,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6105,10 +6119,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6127,23 +6141,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6186,36 +6200,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -6236,12 +6250,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6262,12 +6276,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6286,10 +6300,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6308,10 +6322,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6330,10 +6344,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6352,10 +6366,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6374,23 +6388,23 @@
       <c r="G10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6436,36 +6450,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -6486,12 +6500,12 @@
       <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6512,10 +6526,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6532,10 +6546,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6554,10 +6568,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6576,10 +6590,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6598,10 +6612,10 @@
       <c r="G9" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6620,10 +6634,10 @@
       <c r="G10" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -6642,10 +6656,10 @@
       <c r="G11" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -6664,10 +6678,10 @@
       <c r="G12" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -6686,10 +6700,10 @@
       <c r="G13" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -6708,10 +6722,10 @@
       <c r="G14" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -6730,10 +6744,10 @@
       <c r="G15" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -6752,10 +6766,10 @@
       <c r="G16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -6774,10 +6788,10 @@
       <c r="G17" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -6796,10 +6810,10 @@
       <c r="G18" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -6818,10 +6832,10 @@
       <c r="G19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -6840,10 +6854,10 @@
       <c r="G20" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -6862,23 +6876,23 @@
       <c r="G21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6935,36 +6949,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -6985,12 +6999,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7011,10 +7025,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7033,10 +7047,10 @@
       <c r="G6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7055,23 +7069,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7114,36 +7128,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7164,12 +7178,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7190,10 +7204,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7212,23 +7226,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7270,36 +7284,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7320,12 +7334,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7346,10 +7360,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7368,10 +7382,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7390,10 +7404,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7412,10 +7426,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7434,10 +7448,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7456,10 +7470,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -7478,10 +7492,10 @@
       <c r="G11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -7500,10 +7514,10 @@
       <c r="G12" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="1"/>
@@ -7511,17 +7525,17 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7569,36 +7583,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7619,12 +7633,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7645,10 +7659,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7667,10 +7681,10 @@
       <c r="G6" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7689,23 +7703,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7748,36 +7762,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7798,12 +7812,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7824,10 +7838,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7846,10 +7860,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7868,10 +7882,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7890,10 +7904,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7912,10 +7926,10 @@
       <c r="G9" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7934,10 +7948,10 @@
       <c r="G10" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -7956,10 +7970,10 @@
       <c r="G11" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -7978,10 +7992,10 @@
       <c r="G12" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -8000,10 +8014,10 @@
       <c r="G13" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -8022,10 +8036,10 @@
       <c r="G14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -8044,10 +8058,10 @@
       <c r="G15" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -8066,10 +8080,10 @@
       <c r="G16" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -8088,10 +8102,10 @@
       <c r="G17" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -8110,10 +8124,10 @@
       <c r="G18" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -8132,10 +8146,10 @@
       <c r="G19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -8154,10 +8168,10 @@
       <c r="G20" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -8176,10 +8190,10 @@
       <c r="G21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B22" s="44"/>
@@ -8194,17 +8208,17 @@
       <c r="K22" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -8261,36 +8275,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -8311,12 +8325,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8337,10 +8351,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8359,10 +8373,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8381,10 +8395,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8403,12 +8417,12 @@
       <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8425,23 +8439,23 @@
       <c r="G9" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8486,36 +8500,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
-        <v>392</v>
-      </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -8536,12 +8550,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8562,10 +8576,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8584,10 +8598,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8606,10 +8620,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8628,10 +8642,10 @@
       <c r="G8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8650,10 +8664,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -8672,10 +8686,10 @@
       <c r="G10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -8694,10 +8708,10 @@
       <c r="G11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -8716,10 +8730,10 @@
       <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -8738,10 +8752,10 @@
       <c r="G13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -8760,10 +8774,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -8782,10 +8796,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -8804,23 +8818,23 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -8872,36 +8886,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -8922,12 +8936,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8948,12 +8962,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8972,10 +8986,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8994,10 +9008,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9016,10 +9030,10 @@
       <c r="G8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -9038,10 +9052,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -9060,10 +9074,10 @@
       <c r="G10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -9082,10 +9096,10 @@
       <c r="G11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -9104,10 +9118,10 @@
       <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -9126,10 +9140,10 @@
       <c r="G13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -9148,10 +9162,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -9170,10 +9184,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -9192,10 +9206,10 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" ht="93.75" customHeight="1">
       <c r="B17" s="4">
@@ -9214,12 +9228,12 @@
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="87" t="s">
+      <c r="H17" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -9238,10 +9252,10 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -9260,10 +9274,10 @@
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -9282,10 +9296,10 @@
       <c r="G20" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -9304,23 +9318,23 @@
       <c r="G21" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -9377,36 +9391,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -9427,12 +9441,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9453,10 +9467,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9475,10 +9489,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -9497,10 +9511,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9519,10 +9533,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -9541,10 +9555,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -9563,10 +9577,10 @@
       <c r="G10" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -9585,10 +9599,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -9607,10 +9621,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -9629,12 +9643,12 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" s="47" customFormat="1" ht="42" customHeight="1">
       <c r="B14" s="4">
@@ -9653,25 +9667,25 @@
       <c r="G14" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H14" s="90" t="s">
+      <c r="H14" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -9721,36 +9735,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
-        <v>386</v>
-      </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="68" t="s">
@@ -9771,12 +9785,12 @@
       <c r="G4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9797,10 +9811,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9810,7 +9824,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E6" s="66" t="s">
         <v>184</v>
@@ -9819,20 +9833,20 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>183</v>
@@ -9841,10 +9855,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9863,23 +9877,23 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9923,36 +9937,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -9973,12 +9987,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9999,10 +10013,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10021,12 +10035,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10045,10 +10059,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10067,10 +10081,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10089,10 +10103,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -10111,10 +10125,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10133,10 +10147,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10155,23 +10169,23 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -10200,7 +10214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
@@ -10219,36 +10233,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -10269,12 +10283,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10287,7 +10301,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -10295,10 +10309,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10311,16 +10325,16 @@
         <v>145</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10333,16 +10347,16 @@
         <v>343</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10355,16 +10369,16 @@
         <v>147</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10377,23 +10391,23 @@
         <v>133</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>134</v>
@@ -10405,10 +10419,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10421,16 +10435,16 @@
         <v>148</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10449,10 +10463,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -10471,12 +10485,12 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="71" t="s">
-        <v>368</v>
-      </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="42" customHeight="1">
       <c r="B14" s="4">
@@ -10486,7 +10500,7 @@
         <v>344</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E14" s="57" t="s">
         <v>229</v>
@@ -10495,22 +10509,22 @@
       <c r="G14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="90" t="s">
-        <v>348</v>
-      </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="H14" s="92" t="s">
+        <v>347</v>
+      </c>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>345</v>
+      <c r="C15" s="70" t="s">
+        <v>394</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E15" s="57" t="s">
         <v>229</v>
@@ -10519,20 +10533,20 @@
       <c r="G15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E16" s="57" t="s">
         <v>229</v>
@@ -10541,25 +10555,25 @@
       <c r="G16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="86" t="s">
-        <v>351</v>
-      </c>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
+      <c r="H16" s="88" t="s">
+        <v>350</v>
+      </c>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -10611,36 +10625,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -10661,12 +10675,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10687,17 +10701,17 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>153</v>
@@ -10709,12 +10723,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10733,10 +10747,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10755,10 +10769,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10768,7 +10782,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="57" t="s">
         <v>38</v>
@@ -10777,10 +10791,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -10790,7 +10804,7 @@
         <v>116</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E10" s="57" t="s">
         <v>229</v>
@@ -10799,10 +10813,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10821,10 +10835,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10843,20 +10857,20 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>359</v>
+      <c r="C13" s="71" t="s">
+        <v>395</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E13" s="57" t="s">
         <v>229</v>
@@ -10865,20 +10879,20 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>345</v>
+      <c r="C14" s="71" t="s">
+        <v>396</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E14" s="57" t="s">
         <v>229</v>
@@ -10887,23 +10901,23 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -10953,36 +10967,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
-        <v>363</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="63" t="s">
@@ -11003,12 +11017,12 @@
       <c r="G4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11029,10 +11043,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11051,10 +11065,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -11073,10 +11087,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -11095,10 +11109,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -11117,17 +11131,17 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D10" s="64" t="s">
         <v>134</v>
@@ -11139,10 +11153,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -11161,10 +11175,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -11183,10 +11197,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -11205,22 +11219,22 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="42" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>229</v>
@@ -11229,22 +11243,22 @@
       <c r="G14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="90" t="s">
-        <v>366</v>
-      </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="H14" s="92" t="s">
+        <v>364</v>
+      </c>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>345</v>
+      <c r="C15" s="71" t="s">
+        <v>394</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E15" s="61" t="s">
         <v>229</v>
@@ -11253,20 +11267,20 @@
       <c r="G15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>229</v>
@@ -11275,43 +11289,43 @@
       <c r="G16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>184</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="78"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -11364,36 +11378,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
-        <v>373</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="63" t="s">
@@ -11414,12 +11428,12 @@
       <c r="G4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11440,17 +11454,17 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D6" s="64" t="s">
         <v>153</v>
@@ -11462,12 +11476,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71" t="s">
-        <v>375</v>
-      </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -11486,10 +11500,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -11508,10 +11522,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -11521,7 +11535,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>38</v>
@@ -11530,10 +11544,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -11543,7 +11557,7 @@
         <v>116</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E10" s="61" t="s">
         <v>229</v>
@@ -11552,10 +11566,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -11574,10 +11588,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -11596,20 +11610,20 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="61" t="s">
-        <v>359</v>
+      <c r="C13" s="71" t="s">
+        <v>397</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>229</v>
@@ -11618,20 +11632,20 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>345</v>
+      <c r="C14" s="71" t="s">
+        <v>396</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>229</v>
@@ -11640,20 +11654,20 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E15" s="61" t="s">
         <v>184</v>
@@ -11662,22 +11676,22 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="71" t="s">
-        <v>378</v>
-      </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
+      <c r="H15" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>229</v>
@@ -11686,20 +11700,20 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>229</v>
@@ -11708,20 +11722,20 @@
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E18" s="61" t="s">
         <v>38</v>
@@ -11730,23 +11744,23 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="20" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -11800,36 +11814,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -11850,12 +11864,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11876,12 +11890,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11900,23 +11914,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11958,36 +11972,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -12008,12 +12022,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12034,10 +12048,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12056,10 +12070,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -12078,10 +12092,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12100,10 +12114,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12122,23 +12136,23 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12183,36 +12197,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -12233,12 +12247,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12259,10 +12273,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12281,10 +12295,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -12303,12 +12317,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12327,10 +12341,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12349,23 +12363,23 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12410,36 +12424,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -12460,12 +12474,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12486,10 +12500,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12508,12 +12522,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="33.75" customHeight="1">
       <c r="B7" s="4">
@@ -12532,12 +12546,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12556,10 +12570,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12578,10 +12592,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -12600,23 +12614,23 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -12662,36 +12676,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -12712,12 +12726,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12738,10 +12752,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12760,12 +12774,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="33.75" customHeight="1">
       <c r="B7" s="4">
@@ -12784,12 +12798,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12808,10 +12822,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12830,10 +12844,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -12852,10 +12866,10 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -12874,10 +12888,10 @@
       <c r="G11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -12896,10 +12910,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -12918,23 +12932,23 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -12983,36 +12997,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="81" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -13033,12 +13047,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="75"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -13059,10 +13073,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -13081,10 +13095,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -13103,10 +13117,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -13125,10 +13139,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -13147,10 +13161,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -13169,10 +13183,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -13191,10 +13205,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -13213,10 +13227,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -13235,10 +13249,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -13257,23 +13271,23 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="401">
   <si>
     <t>KEY</t>
   </si>
@@ -2162,10 +2162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业务日起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务单据的单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2707,6 +2703,22 @@
   </si>
   <si>
     <t>inventory_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2921,7 +2933,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3136,6 +3148,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3511,11 +3532,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="29" t="s">
@@ -3544,10 +3565,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="50" customFormat="1" ht="24.95" customHeight="1">
@@ -3621,7 +3642,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>112</v>
@@ -3632,7 +3653,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>163</v>
@@ -3742,7 +3763,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>291</v>
@@ -3753,7 +3774,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>292</v>
@@ -3819,7 +3840,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>294</v>
@@ -3874,7 +3895,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D34" s="52" t="s">
         <v>295</v>
@@ -3885,7 +3906,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D35" s="52" t="s">
         <v>296</v>
@@ -3959,36 +3980,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -4009,12 +4030,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4035,10 +4056,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4057,10 +4078,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4079,10 +4100,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4101,23 +4122,23 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4161,36 +4182,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4211,12 +4232,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4237,10 +4258,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4259,12 +4280,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4283,12 +4304,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="90" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4307,10 +4328,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4329,10 +4350,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4351,38 +4372,38 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4392,7 +4413,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4413,36 +4434,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4463,12 +4484,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4489,10 +4510,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4511,12 +4532,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4535,12 +4556,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="90" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4559,10 +4580,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4581,10 +4602,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4603,64 +4624,64 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-    </row>
-    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+    </row>
+    <row r="11" spans="2:11" s="73" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" s="57" t="s">
+      <c r="C11" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="72" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+        <v>398</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>333</v>
+        <v>174</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>399</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+        <v>127</v>
+      </c>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E13" s="57" t="s">
         <v>184</v>
@@ -4669,30 +4690,52 @@
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-    </row>
-    <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C15" s="74" t="s">
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+    </row>
+    <row r="14" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="H11:K11"/>
+  <mergeCells count="16">
+    <mergeCell ref="C16:K16"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
@@ -4704,6 +4747,7 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4734,36 +4778,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4784,12 +4828,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4810,10 +4854,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4832,10 +4876,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4845,7 +4889,7 @@
         <v>300</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7" s="57" t="s">
         <v>229</v>
@@ -4854,10 +4898,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4867,7 +4911,7 @@
         <v>130</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8" s="57" t="s">
         <v>30</v>
@@ -4876,10 +4920,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4898,10 +4942,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4920,10 +4964,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -4942,10 +4986,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -4964,20 +5008,20 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E13" s="57" t="s">
         <v>184</v>
@@ -4986,10 +5030,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -5008,10 +5052,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="44"/>
@@ -5026,26 +5070,20 @@
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="C16:K16"/>
@@ -5056,6 +5094,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5086,36 +5130,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5136,12 +5180,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5160,10 +5204,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5182,10 +5226,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5204,23 +5248,23 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5263,36 +5307,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5313,12 +5357,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5339,10 +5383,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5361,23 +5405,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5419,36 +5463,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5469,12 +5513,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5493,10 +5537,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5515,23 +5559,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5573,36 +5617,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5623,12 +5667,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5649,10 +5693,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5671,10 +5715,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5693,10 +5737,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -5715,10 +5759,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -5737,10 +5781,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -5759,12 +5803,12 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -5783,10 +5827,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -5805,32 +5849,26 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H6:K6"/>
@@ -5839,6 +5877,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5869,36 +5913,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5919,12 +5963,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5943,10 +5987,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5965,23 +6009,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6023,36 +6067,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
@@ -6073,12 +6117,12 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6099,10 +6143,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6119,10 +6163,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6141,23 +6185,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6200,36 +6244,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -6250,12 +6294,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6276,12 +6320,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6300,10 +6344,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6322,10 +6366,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6344,10 +6388,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6366,10 +6410,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6388,23 +6432,23 @@
       <c r="G10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6450,36 +6494,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -6500,12 +6544,12 @@
       <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6526,10 +6570,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6546,10 +6590,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6568,10 +6612,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6590,10 +6634,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6612,10 +6656,10 @@
       <c r="G9" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6634,10 +6678,10 @@
       <c r="G10" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -6656,10 +6700,10 @@
       <c r="G11" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -6678,10 +6722,10 @@
       <c r="G12" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -6700,10 +6744,10 @@
       <c r="G13" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -6722,10 +6766,10 @@
       <c r="G14" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -6744,10 +6788,10 @@
       <c r="G15" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -6766,10 +6810,10 @@
       <c r="G16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -6788,10 +6832,10 @@
       <c r="G17" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -6810,10 +6854,10 @@
       <c r="G18" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -6832,10 +6876,10 @@
       <c r="G19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -6854,10 +6898,10 @@
       <c r="G20" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -6876,26 +6920,38 @@
       <c r="G21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H10:K10"/>
@@ -6907,18 +6963,6 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6949,36 +6993,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -6999,12 +7043,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7025,10 +7069,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7047,10 +7091,10 @@
       <c r="G6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7069,23 +7113,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7128,36 +7172,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7178,12 +7222,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7204,10 +7248,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7226,23 +7270,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7284,36 +7328,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7334,12 +7378,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7360,10 +7404,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7382,10 +7426,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7404,10 +7448,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7426,10 +7470,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7448,10 +7492,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7470,10 +7514,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -7492,10 +7536,10 @@
       <c r="G11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -7514,10 +7558,10 @@
       <c r="G12" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="1"/>
@@ -7525,26 +7569,20 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H7:K7"/>
@@ -7553,6 +7591,12 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7583,36 +7627,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7633,12 +7677,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7659,10 +7703,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7681,10 +7725,10 @@
       <c r="G6" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7703,23 +7747,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7762,36 +7806,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7812,12 +7856,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7838,10 +7882,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7860,10 +7904,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7882,10 +7926,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7904,10 +7948,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7926,10 +7970,10 @@
       <c r="G9" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7948,10 +7992,10 @@
       <c r="G10" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -7970,10 +8014,10 @@
       <c r="G11" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -7992,10 +8036,10 @@
       <c r="G12" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -8014,10 +8058,10 @@
       <c r="G13" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -8036,10 +8080,10 @@
       <c r="G14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -8058,10 +8102,10 @@
       <c r="G15" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -8080,10 +8124,10 @@
       <c r="G16" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -8102,10 +8146,10 @@
       <c r="G17" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -8124,10 +8168,10 @@
       <c r="G18" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -8146,10 +8190,10 @@
       <c r="G19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -8168,10 +8212,10 @@
       <c r="G20" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -8190,10 +8234,10 @@
       <c r="G21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B22" s="44"/>
@@ -8208,20 +8252,27 @@
       <c r="K22" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="C24:K24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -8238,13 +8289,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8275,36 +8319,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -8325,12 +8369,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8351,10 +8395,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8373,10 +8417,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8395,10 +8439,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8417,12 +8461,12 @@
       <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="91" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8439,23 +8483,23 @@
       <c r="G9" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8500,36 +8544,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -8550,12 +8594,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8576,10 +8620,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8598,10 +8642,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8620,10 +8664,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8642,10 +8686,10 @@
       <c r="G8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8664,10 +8708,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -8686,10 +8730,10 @@
       <c r="G10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -8708,10 +8752,10 @@
       <c r="G11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -8730,10 +8774,10 @@
       <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -8752,10 +8796,10 @@
       <c r="G13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -8774,10 +8818,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -8796,10 +8840,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -8818,26 +8862,37 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
@@ -8845,17 +8900,6 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8886,36 +8930,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
-        <v>391</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -8936,12 +8980,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8962,12 +9006,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8986,10 +9030,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -9008,10 +9052,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9030,10 +9074,10 @@
       <c r="G8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -9052,10 +9096,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -9074,10 +9118,10 @@
       <c r="G10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -9096,10 +9140,10 @@
       <c r="G11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -9118,10 +9162,10 @@
       <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -9140,10 +9184,10 @@
       <c r="G13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -9162,10 +9206,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -9184,10 +9228,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -9206,10 +9250,10 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="2:11" ht="93.75" customHeight="1">
       <c r="B17" s="4">
@@ -9228,12 +9272,12 @@
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="89" t="s">
+      <c r="H17" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -9252,10 +9296,10 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -9274,10 +9318,10 @@
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
     </row>
     <row r="20" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -9296,10 +9340,10 @@
       <c r="G20" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -9318,26 +9362,42 @@
       <c r="G21" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H17:K17"/>
@@ -9345,22 +9405,6 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9391,36 +9435,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -9441,12 +9485,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9467,10 +9511,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9489,10 +9533,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -9511,10 +9555,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9533,10 +9577,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -9555,10 +9599,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -9577,10 +9621,10 @@
       <c r="G10" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -9599,10 +9643,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -9621,10 +9665,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -9643,12 +9687,12 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" s="47" customFormat="1" ht="42" customHeight="1">
       <c r="B14" s="4">
@@ -9667,34 +9711,28 @@
       <c r="G14" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H6:K6"/>
@@ -9705,6 +9743,12 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9735,36 +9779,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="68" t="s">
@@ -9785,12 +9829,12 @@
       <c r="G4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9811,10 +9855,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9824,7 +9868,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E6" s="66" t="s">
         <v>184</v>
@@ -9833,20 +9877,20 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="69" t="s">
         <v>386</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>387</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>183</v>
@@ -9855,10 +9899,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9877,23 +9921,23 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9937,36 +9981,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -9987,12 +10031,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10013,10 +10057,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10035,12 +10079,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10059,10 +10103,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10081,10 +10125,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10103,10 +10147,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -10125,10 +10169,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10147,10 +10191,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10169,32 +10213,26 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H6:K6"/>
@@ -10203,6 +10241,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10233,36 +10277,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -10283,12 +10327,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10301,7 +10345,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -10309,10 +10353,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10325,38 +10369,38 @@
         <v>145</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>343</v>
-      </c>
       <c r="E7" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10369,16 +10413,16 @@
         <v>147</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10391,23 +10435,23 @@
         <v>133</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>134</v>
@@ -10419,10 +10463,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10435,16 +10479,16 @@
         <v>148</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10463,10 +10507,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -10485,22 +10529,22 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="76" t="s">
+        <v>365</v>
+      </c>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="42" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E14" s="57" t="s">
         <v>229</v>
@@ -10509,22 +10553,22 @@
       <c r="G14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="92" t="s">
-        <v>347</v>
-      </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
+      <c r="H14" s="95" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E15" s="57" t="s">
         <v>229</v>
@@ -10533,20 +10577,20 @@
       <c r="G15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="80"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16" s="57" t="s">
         <v>229</v>
@@ -10555,28 +10599,34 @@
       <c r="G16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="88" t="s">
-        <v>350</v>
-      </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80"/>
+      <c r="H16" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -10589,12 +10639,6 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10625,36 +10669,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -10675,12 +10719,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10701,17 +10745,17 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>153</v>
@@ -10723,12 +10767,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73" t="s">
-        <v>355</v>
-      </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10747,10 +10791,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10769,10 +10813,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10782,7 +10826,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" s="57" t="s">
         <v>38</v>
@@ -10791,10 +10835,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -10804,7 +10848,7 @@
         <v>116</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E10" s="57" t="s">
         <v>229</v>
@@ -10813,10 +10857,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10835,10 +10879,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10857,20 +10901,20 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E13" s="57" t="s">
         <v>229</v>
@@ -10879,20 +10923,20 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E14" s="57" t="s">
         <v>229</v>
@@ -10901,32 +10945,26 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
@@ -10937,6 +10975,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10967,36 +11011,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="63" t="s">
@@ -11017,12 +11061,12 @@
       <c r="G4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11043,10 +11087,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11065,20 +11109,20 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>342</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>343</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>183</v>
@@ -11087,10 +11131,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -11109,10 +11153,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -11131,17 +11175,17 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D10" s="64" t="s">
         <v>134</v>
@@ -11153,10 +11197,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -11175,10 +11219,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -11197,10 +11241,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -11219,22 +11263,22 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="42" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>362</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>363</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>229</v>
@@ -11243,22 +11287,22 @@
       <c r="G14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="92" t="s">
-        <v>364</v>
-      </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
+      <c r="H14" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E15" s="61" t="s">
         <v>229</v>
@@ -11267,20 +11311,20 @@
       <c r="G15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="80"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>229</v>
@@ -11289,46 +11333,52 @@
       <c r="G16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>368</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>369</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>184</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H6:K6"/>
@@ -11342,12 +11392,6 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11378,36 +11422,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="63" t="s">
@@ -11428,12 +11472,12 @@
       <c r="G4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11454,17 +11498,17 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D6" s="64" t="s">
         <v>153</v>
@@ -11476,12 +11520,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73" t="s">
-        <v>373</v>
-      </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -11500,10 +11544,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -11522,10 +11566,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -11535,7 +11579,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>38</v>
@@ -11544,10 +11588,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -11557,7 +11601,7 @@
         <v>116</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E10" s="61" t="s">
         <v>229</v>
@@ -11566,10 +11610,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -11588,10 +11632,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -11610,20 +11654,20 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>229</v>
@@ -11632,20 +11676,20 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>229</v>
@@ -11654,20 +11698,20 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="61" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>374</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>375</v>
       </c>
       <c r="E15" s="61" t="s">
         <v>184</v>
@@ -11676,22 +11720,22 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="73" t="s">
-        <v>376</v>
-      </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
+      <c r="H15" s="76" t="s">
+        <v>375</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>378</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>379</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>229</v>
@@ -11700,20 +11744,20 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>229</v>
@@ -11722,20 +11766,20 @@
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E18" s="61" t="s">
         <v>38</v>
@@ -11744,34 +11788,26 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="20" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -11784,6 +11820,14 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11814,36 +11858,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -11864,12 +11908,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11890,12 +11934,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11914,23 +11958,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11972,36 +12016,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -12022,12 +12066,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12048,10 +12092,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12070,10 +12114,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -12092,10 +12136,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12114,10 +12158,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12136,37 +12180,37 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12197,36 +12241,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -12247,12 +12291,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12273,10 +12317,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12295,10 +12339,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -12317,12 +12361,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12341,10 +12385,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12363,37 +12407,37 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12424,36 +12468,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -12474,12 +12518,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12500,10 +12544,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12522,12 +12566,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="33.75" customHeight="1">
       <c r="B7" s="4">
@@ -12546,12 +12590,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="90" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12570,10 +12614,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12592,10 +12636,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -12614,38 +12658,38 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12655,7 +12699,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -12676,36 +12720,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -12726,12 +12770,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12752,10 +12796,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12774,12 +12818,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="33.75" customHeight="1">
       <c r="B7" s="4">
@@ -12798,12 +12842,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="90" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12822,10 +12866,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12844,10 +12888,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -12866,64 +12910,64 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-    </row>
-    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+    </row>
+    <row r="11" spans="2:11" s="73" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>309</v>
+      <c r="C11" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>30</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+        <v>398</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>310</v>
+        <v>174</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>399</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+        <v>127</v>
+      </c>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>184</v>
@@ -12932,30 +12976,52 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-    </row>
-    <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C15" s="74" t="s">
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+    </row>
+    <row r="14" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+    </row>
+    <row r="16" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="H11:K11"/>
+  <mergeCells count="16">
+    <mergeCell ref="C16:K16"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
@@ -12967,6 +13033,7 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12997,36 +13064,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -13047,12 +13114,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -13073,10 +13140,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -13095,10 +13162,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -13117,10 +13184,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -13139,10 +13206,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -13161,10 +13228,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -13183,10 +13250,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -13205,10 +13272,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -13227,10 +13294,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -13249,10 +13316,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -13271,32 +13338,26 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H7:K7"/>
@@ -13307,6 +13368,12 @@
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="410">
   <si>
     <t>KEY</t>
   </si>
@@ -2721,6 +2721,89 @@
     <t>biz_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>采购计量单位id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双单位制下，对应销售计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议采购单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购计量单位与销售计量单位的比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采购计量单位的计数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售计量单位的计数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_unit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2933,7 +3016,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3159,6 +3242,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3220,6 +3312,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3532,11 +3627,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="29" t="s">
@@ -3980,36 +4075,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -4030,12 +4125,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4056,10 +4151,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4078,10 +4173,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4100,10 +4195,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4122,23 +4217,23 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4182,36 +4277,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4232,12 +4327,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4258,10 +4353,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4280,12 +4375,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="79" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4304,12 +4399,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4328,10 +4423,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4350,10 +4445,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4372,38 +4467,38 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4434,36 +4529,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4484,12 +4579,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4510,10 +4605,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4532,12 +4627,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="79" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4556,12 +4651,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4580,10 +4675,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4602,10 +4697,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4624,10 +4719,10 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" s="73" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -4646,10 +4741,10 @@
       <c r="G11" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -4668,10 +4763,10 @@
       <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -4690,10 +4785,10 @@
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -4712,23 +4807,23 @@
       <c r="G14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4778,36 +4873,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4828,12 +4923,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4854,10 +4949,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4876,10 +4971,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4898,10 +4993,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4920,10 +5015,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4942,10 +5037,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4964,10 +5059,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -4986,10 +5081,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -5008,10 +5103,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -5030,10 +5125,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -5052,10 +5147,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="44"/>
@@ -5070,20 +5165,26 @@
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="C16:K16"/>
@@ -5094,12 +5195,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5130,36 +5225,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5180,12 +5275,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5204,10 +5299,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5226,10 +5321,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5248,23 +5343,23 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5307,36 +5402,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5357,12 +5452,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5383,10 +5478,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5405,23 +5500,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5463,36 +5558,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5513,12 +5608,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5537,10 +5632,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5559,23 +5654,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5617,36 +5712,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5667,12 +5762,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5693,10 +5788,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5715,10 +5810,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5737,10 +5832,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -5759,10 +5854,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -5781,10 +5876,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -5803,12 +5898,12 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -5827,10 +5922,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -5849,26 +5944,32 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H6:K6"/>
@@ -5877,12 +5978,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5913,36 +6008,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5963,12 +6058,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5987,10 +6082,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6009,23 +6104,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6067,36 +6162,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
@@ -6117,12 +6212,12 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6143,10 +6238,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6163,10 +6258,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6185,23 +6280,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6244,36 +6339,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -6294,12 +6389,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6320,12 +6415,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6344,10 +6439,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6366,10 +6461,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6388,10 +6483,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6410,10 +6505,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6432,23 +6527,23 @@
       <c r="G10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6494,36 +6589,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -6544,12 +6639,12 @@
       <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6570,10 +6665,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6590,10 +6685,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6612,10 +6707,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6634,10 +6729,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6656,10 +6751,10 @@
       <c r="G9" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6678,10 +6773,10 @@
       <c r="G10" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -6700,10 +6795,10 @@
       <c r="G11" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -6722,10 +6817,10 @@
       <c r="G12" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -6744,10 +6839,10 @@
       <c r="G13" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -6766,10 +6861,10 @@
       <c r="G14" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -6788,10 +6883,10 @@
       <c r="G15" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -6810,10 +6905,10 @@
       <c r="G16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -6832,10 +6927,10 @@
       <c r="G17" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -6854,10 +6949,10 @@
       <c r="G18" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -6876,10 +6971,10 @@
       <c r="G19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -6898,10 +6993,10 @@
       <c r="G20" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -6920,38 +7015,26 @@
       <c r="G21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H10:K10"/>
@@ -6963,6 +7046,18 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6993,36 +7088,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7043,12 +7138,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7069,10 +7164,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7091,10 +7186,10 @@
       <c r="G6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7113,23 +7208,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7172,36 +7267,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7222,12 +7317,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7248,10 +7343,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7270,23 +7365,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7307,7 +7402,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7328,36 +7423,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7378,12 +7473,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7404,10 +7499,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7426,10 +7521,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7448,10 +7543,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7470,10 +7565,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7492,10 +7587,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7514,10 +7609,12 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="92" t="s">
+        <v>402</v>
+      </c>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -7536,71 +7633,142 @@
       <c r="G11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-    </row>
-    <row r="12" spans="2:11" ht="24.95" customHeight="1">
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+    </row>
+    <row r="12" spans="2:11" s="76" customFormat="1" ht="24.95" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="39" t="s">
+      <c r="C12" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="75" t="s">
         <v>183</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+    </row>
+    <row r="13" spans="2:11" s="76" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+    </row>
+    <row r="14" spans="2:11" s="76" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>408</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+    </row>
+    <row r="15" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-    </row>
-    <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="77" t="s">
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+    </row>
+    <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="3:11" ht="24.95" customHeight="1">
+      <c r="C17" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+  <mergeCells count="17">
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7627,36 +7795,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7677,12 +7845,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7703,10 +7871,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7725,10 +7893,10 @@
       <c r="G6" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7747,23 +7915,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7806,36 +7974,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7856,12 +8024,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7882,10 +8050,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7904,10 +8072,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7926,10 +8094,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7948,10 +8116,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7970,10 +8138,10 @@
       <c r="G9" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7992,10 +8160,10 @@
       <c r="G10" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -8014,10 +8182,10 @@
       <c r="G11" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -8036,10 +8204,10 @@
       <c r="G12" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -8058,10 +8226,10 @@
       <c r="G13" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -8080,10 +8248,10 @@
       <c r="G14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -8102,10 +8270,10 @@
       <c r="G15" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -8124,10 +8292,10 @@
       <c r="G16" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -8146,10 +8314,10 @@
       <c r="G17" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -8168,10 +8336,10 @@
       <c r="G18" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -8190,10 +8358,10 @@
       <c r="G19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -8212,10 +8380,10 @@
       <c r="G20" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -8234,10 +8402,10 @@
       <c r="G21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="22" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B22" s="44"/>
@@ -8252,27 +8420,20 @@
       <c r="K22" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H18:K18"/>
     <mergeCell ref="C24:K24"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -8289,6 +8450,13 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8319,36 +8487,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -8369,12 +8537,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8395,10 +8563,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8417,10 +8585,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8439,10 +8607,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8461,12 +8629,12 @@
       <c r="G8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
     </row>
     <row r="9" spans="2:11" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8483,23 +8651,23 @@
       <c r="G9" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8544,36 +8712,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -8594,12 +8762,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -8620,10 +8788,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -8642,10 +8810,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -8664,10 +8832,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -8686,10 +8854,10 @@
       <c r="G8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -8708,10 +8876,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -8730,10 +8898,10 @@
       <c r="G10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -8752,10 +8920,10 @@
       <c r="G11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -8774,10 +8942,10 @@
       <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -8796,10 +8964,10 @@
       <c r="G13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -8818,10 +8986,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -8840,10 +9008,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -8862,37 +9030,26 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
@@ -8900,6 +9057,17 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8930,36 +9098,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="25" t="s">
@@ -8980,12 +9148,12 @@
       <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9006,12 +9174,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9030,10 +9198,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -9052,10 +9220,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9074,10 +9242,10 @@
       <c r="G8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -9096,10 +9264,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -9118,10 +9286,10 @@
       <c r="G10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -9140,10 +9308,10 @@
       <c r="G11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -9162,10 +9330,10 @@
       <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -9184,10 +9352,10 @@
       <c r="G13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -9206,10 +9374,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -9228,10 +9396,10 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -9250,10 +9418,10 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="2:11" ht="93.75" customHeight="1">
       <c r="B17" s="4">
@@ -9272,12 +9440,12 @@
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="97"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -9296,10 +9464,10 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -9318,10 +9486,10 @@
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -9340,10 +9508,10 @@
       <c r="G20" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
     </row>
     <row r="21" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -9362,42 +9530,26 @@
       <c r="G21" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H17:K17"/>
@@ -9405,6 +9557,22 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9435,36 +9603,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -9485,12 +9653,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9511,10 +9679,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9533,10 +9701,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -9555,10 +9723,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9577,10 +9745,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -9599,10 +9767,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -9621,10 +9789,10 @@
       <c r="G10" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -9643,10 +9811,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -9665,10 +9833,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -9687,12 +9855,12 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" s="47" customFormat="1" ht="42" customHeight="1">
       <c r="B14" s="4">
@@ -9711,28 +9879,34 @@
       <c r="G14" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H6:K6"/>
@@ -9743,12 +9917,6 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9779,36 +9947,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="68" t="s">
@@ -9829,12 +9997,12 @@
       <c r="G4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -9855,10 +10023,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -9877,10 +10045,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -9899,10 +10067,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -9921,23 +10089,23 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9981,36 +10149,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="29" t="s">
@@ -10031,12 +10199,12 @@
       <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10057,10 +10225,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10079,12 +10247,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10103,10 +10271,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10125,10 +10293,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10147,10 +10315,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -10169,10 +10337,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10191,10 +10359,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10213,26 +10381,32 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H6:K6"/>
@@ -10241,12 +10415,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10277,36 +10445,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -10327,12 +10495,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10353,10 +10521,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10375,10 +10543,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10397,10 +10565,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10419,10 +10587,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10441,10 +10609,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -10463,10 +10631,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10485,10 +10653,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10507,10 +10675,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -10529,12 +10697,12 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="42" customHeight="1">
       <c r="B14" s="4">
@@ -10553,12 +10721,12 @@
       <c r="G14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -10577,10 +10745,10 @@
       <c r="G15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -10599,34 +10767,28 @@
       <c r="G16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -10639,6 +10801,12 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10669,36 +10837,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -10719,12 +10887,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -10745,10 +10913,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -10767,12 +10935,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -10791,10 +10959,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -10813,10 +10981,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -10835,10 +11003,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -10857,10 +11025,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -10879,10 +11047,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -10901,10 +11069,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -10923,10 +11091,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -10945,26 +11113,32 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="H13:K13"/>
@@ -10975,12 +11149,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11011,36 +11179,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="63" t="s">
@@ -11061,12 +11229,12 @@
       <c r="G4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11087,10 +11255,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11109,10 +11277,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -11131,10 +11299,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -11153,10 +11321,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -11175,10 +11343,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -11197,10 +11365,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -11219,10 +11387,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -11241,10 +11409,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -11263,12 +11431,12 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="42" customHeight="1">
       <c r="B14" s="4">
@@ -11287,12 +11455,12 @@
       <c r="G14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -11311,10 +11479,10 @@
       <c r="G15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -11333,10 +11501,10 @@
       <c r="G16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -11353,32 +11521,26 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H6:K6"/>
@@ -11392,6 +11554,12 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11422,36 +11590,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="63" t="s">
@@ -11472,12 +11640,12 @@
       <c r="G4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11498,10 +11666,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11520,12 +11688,12 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="79" t="s">
         <v>372</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -11544,10 +11712,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -11566,10 +11734,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -11588,10 +11756,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -11610,10 +11778,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -11632,10 +11800,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -11654,10 +11822,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -11676,10 +11844,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -11698,10 +11866,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -11720,12 +11888,12 @@
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="79" t="s">
         <v>375</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -11744,10 +11912,10 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -11766,10 +11934,10 @@
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -11788,26 +11956,34 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="20" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -11820,14 +11996,6 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11858,36 +12026,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -11908,12 +12076,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -11934,12 +12102,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -11958,23 +12126,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12016,36 +12184,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -12066,12 +12234,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12092,10 +12260,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12114,10 +12282,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -12136,10 +12304,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12158,10 +12326,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12180,37 +12348,37 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12241,36 +12409,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -12291,12 +12459,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12317,10 +12485,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12339,10 +12507,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -12361,12 +12529,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12385,10 +12553,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12407,37 +12575,37 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12468,36 +12636,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -12518,12 +12686,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12544,10 +12712,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12566,12 +12734,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="33.75" customHeight="1">
       <c r="B7" s="4">
@@ -12590,12 +12758,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12614,10 +12782,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12636,10 +12804,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -12658,38 +12826,38 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12720,36 +12888,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -12770,12 +12938,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -12796,10 +12964,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -12818,12 +12986,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="33.75" customHeight="1">
       <c r="B7" s="4">
@@ -12842,12 +13010,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -12866,10 +13034,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -12888,10 +13056,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -12910,10 +13078,10 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" s="73" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -12932,10 +13100,10 @@
       <c r="G11" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -12954,10 +13122,10 @@
       <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -12976,10 +13144,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -12998,23 +13166,23 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -13064,36 +13232,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="53" t="s">
@@ -13114,12 +13282,12 @@
       <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="80"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -13140,10 +13308,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -13162,10 +13330,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -13184,10 +13352,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -13206,10 +13374,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -13228,10 +13396,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -13250,10 +13418,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -13272,10 +13440,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -13294,10 +13462,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -13316,10 +13484,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -13338,26 +13506,32 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H7:K7"/>
@@ -13368,12 +13542,6 @@
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/02 表结构/表结构说明.xlsx
+++ b/doc/02 表结构/表结构说明.xlsx
@@ -41,13 +41,14 @@
     <sheet name="t_ws_bill_detail" sheetId="33" r:id="rId32"/>
     <sheet name="t_sr_bill" sheetId="34" r:id="rId33"/>
     <sheet name="t_sr_bill_detail" sheetId="35" r:id="rId34"/>
+    <sheet name="t_warehouse_org" sheetId="37" r:id="rId35"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="420">
   <si>
     <t>KEY</t>
   </si>
@@ -2804,6 +2805,105 @@
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>t_warehouse_org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill_fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构或人员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构或人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单据对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>fid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：组织机构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：人员</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库操作人，用来管理每个单据下哪些人可以操作哪些仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_warehouse_org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3016,7 +3116,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3251,6 +3351,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3312,9 +3427,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3613,7 +3725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D35"/>
+  <dimension ref="B1:D36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3627,11 +3739,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="29" t="s">
@@ -3985,15 +4097,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="24.95" customHeight="1">
+    <row r="34" spans="2:4" s="79" customFormat="1" ht="24.95" customHeight="1">
       <c r="B34" s="4">
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>295</v>
+        <v>419</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="24.95" customHeight="1">
@@ -4001,9 +4113,20 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D36" s="52" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4041,11 +4164,12 @@
     <hyperlink ref="C21" location="t_receivables!A1" display="t_receivables"/>
     <hyperlink ref="C22" location="t_receivables_detail!A1" display="t_receivables_detail"/>
     <hyperlink ref="C23" location="t_receiving!A1" display="t_receiving"/>
-    <hyperlink ref="C34" location="t_ws_bill!A1" display="t_ws_bill"/>
-    <hyperlink ref="C35" location="t_ws_bill_detail!A1" display="t_ws_bill_detail"/>
+    <hyperlink ref="C35" location="t_ws_bill!A1" display="t_ws_bill"/>
+    <hyperlink ref="C36" location="t_ws_bill_detail!A1" display="t_ws_bill_detail"/>
     <hyperlink ref="C28" location="t_sr_bill!A1" display="t_sr_bill"/>
     <hyperlink ref="C29" location="t_sr_bill_detail!A1" display="t_sr_bill_detail"/>
     <hyperlink ref="C4" location="t_config!A1" display="t_config"/>
+    <hyperlink ref="C34" location="t_warehouse_org!A1" display="t_warehouse_org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -4075,36 +4199,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -4125,12 +4249,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4151,10 +4275,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4173,10 +4297,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -4195,10 +4319,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4217,23 +4341,23 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4277,36 +4401,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4327,12 +4451,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4353,10 +4477,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4375,12 +4499,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="84" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4399,12 +4523,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="98" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4423,10 +4547,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4445,10 +4569,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4467,38 +4591,38 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4529,36 +4653,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4579,12 +4703,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4605,10 +4729,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4627,12 +4751,12 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="84" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4651,12 +4775,12 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="98" t="s">
         <v>307</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -4675,10 +4799,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -4697,10 +4821,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -4719,10 +4843,10 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="2:11" s="73" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -4741,10 +4865,10 @@
       <c r="G11" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -4763,10 +4887,10 @@
       <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -4785,10 +4909,10 @@
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -4807,23 +4931,23 @@
       <c r="G14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4873,36 +4997,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="59" t="s">
@@ -4923,12 +5047,12 @@
       <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -4949,10 +5073,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -4971,10 +5095,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="39.75" customHeight="1">
       <c r="B7" s="4">
@@ -4993,10 +5117,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -5015,10 +5139,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -5037,10 +5161,10 @@
       <c r="G9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -5059,10 +5183,10 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -5081,10 +5205,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -5103,10 +5227,10 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -5125,10 +5249,10 @@
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -5147,10 +5271,10 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="44"/>
@@ -5165,26 +5289,20 @@
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="C16:K16"/>
@@ -5195,6 +5313,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5225,36 +5349,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5275,12 +5399,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5299,10 +5423,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5321,10 +5445,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5343,23 +5467,23 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5402,36 +5526,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5452,12 +5576,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5478,10 +5602,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5500,23 +5624,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5558,36 +5682,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5608,12 +5732,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5632,10 +5756,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5654,23 +5778,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5712,36 +5836,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -5762,12 +5886,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -5788,10 +5912,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -5810,10 +5934,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -5832,10 +5956,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -5854,10 +5978,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -5876,10 +6000,10 @@
       <c r="G9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -5898,12 +6022,12 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -5922,10 +6046,10 @@
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -5944,32 +6068,26 @@
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H6:K6"/>
@@ -5978,6 +6096,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6008,36 +6132,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -6058,12 +6182,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6082,10 +6206,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6104,23 +6228,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6162,36 +6286,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
@@ -6212,12 +6336,12 @@
       <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6238,10 +6362,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6258,10 +6382,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6280,23 +6404,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6339,36 +6463,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -6389,12 +6513,12 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6415,12 +6539,12 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6439,10 +6563,10 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6461,10 +6585,10 @@
       <c r="G7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6483,10 +6607,10 @@
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6505,10 +6629,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6527,23 +6651,23 @@
       <c r="G10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6589,36 +6713,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -6639,12 +6763,12 @@
       <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -6665,10 +6789,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -6685,10 +6809,10 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -6707,10 +6831,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -6729,10 +6853,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -6751,10 +6875,10 @@
       <c r="G9" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -6773,10 +6897,10 @@
       <c r="G10" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -6795,10 +6919,10 @@
       <c r="G11" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -6817,10 +6941,10 @@
       <c r="G12" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -6839,10 +6963,10 @@
       <c r="G13" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B14" s="4">
@@ -6861,10 +6985,10 @@
       <c r="G14" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -6883,10 +7007,10 @@
       <c r="G15" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="4">
@@ -6905,10 +7029,10 @@
       <c r="G16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B17" s="4">
@@ -6927,10 +7051,10 @@
       <c r="G17" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
     </row>
     <row r="18" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B18" s="4">
@@ -6949,10 +7073,10 @@
       <c r="G18" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4">
@@ -6971,10 +7095,10 @@
       <c r="G19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="4">
@@ -6993,10 +7117,10 @@
       <c r="G20" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
     </row>
     <row r="21" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4">
@@ -7015,26 +7139,38 @@
       <c r="G21" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="23" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H10:K10"/>
@@ -7046,18 +7182,6 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7088,36 +7212,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7138,12 +7262,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7164,10 +7288,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7186,10 +7310,10 @@
       <c r="G6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7208,23 +7332,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7267,36 +7391,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7317,12 +7441,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7343,10 +7467,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7365,23 +7489,23 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7423,36 +7547,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="17" t="s">
@@ -7473,12 +7597,12 @@
       <c r="G4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7499,10 +7623,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7521,10 +7645,10 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7543,10 +7667,10 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="4">
@@ -7565,10 +7689,10 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="4">
@@ -7587,10 +7711,10 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="4">
@@ -7609,12 +7733,12 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="97" t="s">
         <v>402</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="4">
@@ -7633,10 +7757,10 @@
       <c r="G11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="2:11" s="76" customFormat="1" ht="24.95" customHeight="1">
       <c r="B12" s="4">
@@ -7655,10 +7779,10 @@
       <c r="G12" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="2:11" s="76" customFormat="1" ht="24.95" customHeight="1">
       <c r="B13" s="4">
@@ -7677,10 +7801,10 @@
       <c r="G13" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="2:11" s="76" customFormat="1" ht="33.75" customHeight="1">
       <c r="B14" s="4">
@@ -7689,7 +7813,7 @@
       <c r="C14" s="75" t="s">
         <v>408</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="82" t="s">
         <v>404</v>
       </c>
       <c r="E14" s="75" t="s">
@@ -7699,12 +7823,12 @@
       <c r="G14" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="4">
@@ -7723,10 +7847,10 @@
       <c r="G15" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="2:11" s="38" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="1"/>
@@ -7734,26 +7858,20 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="H7:K7"/>
@@ -7765,6 +7883,12 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7795,36 +7919,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -7845,12 +7969,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="83"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="4">
@@ -7871,10 +7995,10 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="2:11" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B6" s="4">
@@ -7893,10 +8017,10 @@
       <c r="G6" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="4">
@@ -7915,23 +8039,23 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"